--- a/test19-function-2/filesize.xlsx
+++ b/test19-function-2/filesize.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2060" windowWidth="32000" windowHeight="19220" tabRatio="500"/>
+    <workbookView xWindow="840" yWindow="0" windowWidth="24480" windowHeight="13180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="filesize.tsv" sheetId="1" r:id="rId1"/>
@@ -3451,8 +3451,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="321">
+  <cellStyleXfs count="357">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3788,7 +3824,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="321">
+  <cellStyles count="357">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3949,6 +3985,24 @@
     <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -4109,6 +4163,24 @@
     <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4441,10 +4513,10 @@
   <dimension ref="A1:S140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="G100" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="K102" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A146" sqref="A146"/>
-      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomRight" activeCell="T123" sqref="T123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4569,7 +4641,7 @@
         <v>28</v>
       </c>
       <c r="C3" s="6">
-        <v>145424</v>
+        <v>145426</v>
       </c>
       <c r="D3" t="s">
         <v>148</v>
@@ -4587,7 +4659,7 @@
         <v>388</v>
       </c>
       <c r="I3" s="6">
-        <v>145424</v>
+        <v>2648</v>
       </c>
       <c r="J3" t="s">
         <v>508</v>
@@ -4605,7 +4677,7 @@
         <v>748</v>
       </c>
       <c r="O3" s="6">
-        <v>148986</v>
+        <v>148991</v>
       </c>
       <c r="P3" t="s">
         <v>868</v>
@@ -4643,7 +4715,7 @@
         <v>389</v>
       </c>
       <c r="I4" s="6">
-        <v>232382</v>
+        <v>4035</v>
       </c>
       <c r="J4" t="s">
         <v>509</v>
@@ -4681,7 +4753,7 @@
         <v>30</v>
       </c>
       <c r="C5" s="6">
-        <v>300338</v>
+        <v>300334</v>
       </c>
       <c r="D5" t="s">
         <v>150</v>
@@ -4699,7 +4771,7 @@
         <v>390</v>
       </c>
       <c r="I5" s="6">
-        <v>300338</v>
+        <v>3604</v>
       </c>
       <c r="J5" t="s">
         <v>510</v>
@@ -4717,7 +4789,7 @@
         <v>750</v>
       </c>
       <c r="O5" s="6">
-        <v>313122</v>
+        <v>313121</v>
       </c>
       <c r="P5" t="s">
         <v>870</v>
@@ -4755,7 +4827,7 @@
         <v>391</v>
       </c>
       <c r="I6" s="6">
-        <v>334377</v>
+        <v>3941</v>
       </c>
       <c r="J6" t="s">
         <v>511</v>
@@ -4793,7 +4865,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="6">
-        <v>179573</v>
+        <v>179583</v>
       </c>
       <c r="D7" t="s">
         <v>152</v>
@@ -4811,7 +4883,7 @@
         <v>392</v>
       </c>
       <c r="I7" s="6">
-        <v>179573</v>
+        <v>3098</v>
       </c>
       <c r="J7" t="s">
         <v>512</v>
@@ -4829,7 +4901,7 @@
         <v>752</v>
       </c>
       <c r="O7" s="6">
-        <v>190252</v>
+        <v>190227</v>
       </c>
       <c r="P7" t="s">
         <v>872</v>
@@ -4867,7 +4939,7 @@
         <v>393</v>
       </c>
       <c r="I8" s="6">
-        <v>689254</v>
+        <v>328</v>
       </c>
       <c r="J8" t="s">
         <v>513</v>
@@ -4905,55 +4977,55 @@
         <v>34</v>
       </c>
       <c r="C9" s="6">
-        <v>3260499</v>
+        <v>3257775</v>
       </c>
       <c r="D9" t="s">
         <v>154</v>
       </c>
       <c r="E9" s="6">
-        <v>3296185</v>
+        <v>3295963</v>
       </c>
       <c r="F9" t="s">
         <v>274</v>
       </c>
       <c r="G9" s="6">
-        <v>3231860</v>
+        <v>3230878</v>
       </c>
       <c r="H9" t="s">
         <v>394</v>
       </c>
       <c r="I9" s="6">
-        <v>3260408</v>
+        <v>311</v>
       </c>
       <c r="J9" t="s">
         <v>514</v>
       </c>
       <c r="K9" s="6">
-        <v>2775923</v>
+        <v>2776610</v>
       </c>
       <c r="L9" t="s">
         <v>634</v>
       </c>
       <c r="M9" s="6">
-        <v>3231860</v>
+        <v>3230878</v>
       </c>
       <c r="N9" t="s">
         <v>754</v>
       </c>
       <c r="O9" s="6">
-        <v>2588905</v>
+        <v>2590207</v>
       </c>
       <c r="P9" t="s">
         <v>874</v>
       </c>
       <c r="Q9" s="6">
-        <v>3269381</v>
+        <v>3269879</v>
       </c>
       <c r="R9" t="s">
         <v>994</v>
       </c>
       <c r="S9" s="6">
-        <v>3231860</v>
+        <v>3230878</v>
       </c>
     </row>
     <row r="10" spans="2:19">
@@ -4961,55 +5033,55 @@
         <v>35</v>
       </c>
       <c r="C10" s="6">
-        <v>852857</v>
+        <v>854827</v>
       </c>
       <c r="D10" t="s">
         <v>155</v>
       </c>
       <c r="E10" s="6">
-        <v>880130</v>
+        <v>879394</v>
       </c>
       <c r="F10" t="s">
         <v>275</v>
       </c>
       <c r="G10" s="6">
-        <v>952677</v>
+        <v>952352</v>
       </c>
       <c r="H10" t="s">
         <v>395</v>
       </c>
       <c r="I10" s="6">
-        <v>852857</v>
+        <v>265</v>
       </c>
       <c r="J10" t="s">
         <v>515</v>
       </c>
       <c r="K10" s="6">
-        <v>572276</v>
+        <v>570502</v>
       </c>
       <c r="L10" t="s">
         <v>635</v>
       </c>
       <c r="M10" s="6">
-        <v>952680</v>
+        <v>952352</v>
       </c>
       <c r="N10" t="s">
         <v>755</v>
       </c>
       <c r="O10" s="6">
-        <v>276176</v>
+        <v>292934</v>
       </c>
       <c r="P10" t="s">
         <v>875</v>
       </c>
       <c r="Q10" s="6">
-        <v>816637</v>
+        <v>819856</v>
       </c>
       <c r="R10" t="s">
         <v>995</v>
       </c>
       <c r="S10" s="6">
-        <v>952672</v>
+        <v>952352</v>
       </c>
     </row>
     <row r="11" spans="2:19">
@@ -5017,55 +5089,55 @@
         <v>36</v>
       </c>
       <c r="C11" s="6">
-        <v>480150</v>
+        <v>480699</v>
       </c>
       <c r="D11" t="s">
         <v>156</v>
       </c>
       <c r="E11" s="6">
-        <v>501581</v>
+        <v>501526</v>
       </c>
       <c r="F11" t="s">
         <v>276</v>
       </c>
       <c r="G11" s="6">
-        <v>492283</v>
+        <v>492210</v>
       </c>
       <c r="H11" t="s">
         <v>396</v>
       </c>
       <c r="I11" s="6">
-        <v>480130</v>
+        <v>254</v>
       </c>
       <c r="J11" t="s">
         <v>516</v>
       </c>
       <c r="K11" s="6">
-        <v>286630</v>
+        <v>287111</v>
       </c>
       <c r="L11" t="s">
         <v>636</v>
       </c>
       <c r="M11" s="6">
-        <v>492280</v>
+        <v>492207</v>
       </c>
       <c r="N11" t="s">
         <v>756</v>
       </c>
       <c r="O11" s="6">
-        <v>210519</v>
+        <v>211391</v>
       </c>
       <c r="P11" t="s">
         <v>876</v>
       </c>
       <c r="Q11" s="6">
-        <v>447040</v>
+        <v>448152</v>
       </c>
       <c r="R11" t="s">
         <v>996</v>
       </c>
       <c r="S11" s="6">
-        <v>492280</v>
+        <v>492210</v>
       </c>
     </row>
     <row r="12" spans="2:19">
@@ -5073,7 +5145,7 @@
         <v>37</v>
       </c>
       <c r="C12" s="6">
-        <v>252680</v>
+        <v>252714</v>
       </c>
       <c r="D12" t="s">
         <v>157</v>
@@ -5091,7 +5163,7 @@
         <v>397</v>
       </c>
       <c r="I12" s="6">
-        <v>252680</v>
+        <v>3698</v>
       </c>
       <c r="J12" t="s">
         <v>517</v>
@@ -5109,7 +5181,7 @@
         <v>757</v>
       </c>
       <c r="O12" s="6">
-        <v>258917</v>
+        <v>258960</v>
       </c>
       <c r="P12" t="s">
         <v>877</v>
@@ -5147,7 +5219,7 @@
         <v>398</v>
       </c>
       <c r="I13" s="6">
-        <v>336236</v>
+        <v>4414</v>
       </c>
       <c r="J13" t="s">
         <v>518</v>
@@ -5165,7 +5237,7 @@
         <v>758</v>
       </c>
       <c r="O13" s="6">
-        <v>350305</v>
+        <v>350320</v>
       </c>
       <c r="P13" t="s">
         <v>878</v>
@@ -5185,7 +5257,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="6">
-        <v>151868</v>
+        <v>151893</v>
       </c>
       <c r="D14" t="s">
         <v>159</v>
@@ -5203,13 +5275,13 @@
         <v>399</v>
       </c>
       <c r="I14" s="6">
-        <v>151868</v>
+        <v>2066</v>
       </c>
       <c r="J14" t="s">
         <v>519</v>
       </c>
       <c r="K14" s="6">
-        <v>183949</v>
+        <v>183939</v>
       </c>
       <c r="L14" t="s">
         <v>639</v>
@@ -5221,7 +5293,7 @@
         <v>759</v>
       </c>
       <c r="O14" s="6">
-        <v>159714</v>
+        <v>159738</v>
       </c>
       <c r="P14" t="s">
         <v>879</v>
@@ -5241,25 +5313,25 @@
         <v>40</v>
       </c>
       <c r="C15" s="6">
-        <v>218474</v>
+        <v>218895</v>
       </c>
       <c r="D15" t="s">
         <v>160</v>
       </c>
       <c r="E15" s="6">
-        <v>180770</v>
+        <v>180784</v>
       </c>
       <c r="F15" t="s">
         <v>280</v>
       </c>
       <c r="G15" s="6">
-        <v>195003</v>
+        <v>195159</v>
       </c>
       <c r="H15" t="s">
         <v>400</v>
       </c>
       <c r="I15" s="6">
-        <v>218474</v>
+        <v>2385</v>
       </c>
       <c r="J15" t="s">
         <v>520</v>
@@ -5271,25 +5343,25 @@
         <v>640</v>
       </c>
       <c r="M15" s="6">
-        <v>195003</v>
+        <v>195159</v>
       </c>
       <c r="N15" t="s">
         <v>760</v>
       </c>
       <c r="O15" s="6">
-        <v>226148</v>
+        <v>226666</v>
       </c>
       <c r="P15" t="s">
         <v>880</v>
       </c>
       <c r="Q15" s="6">
-        <v>185498</v>
+        <v>185526</v>
       </c>
       <c r="R15" t="s">
         <v>1000</v>
       </c>
       <c r="S15" s="6">
-        <v>194464</v>
+        <v>194548</v>
       </c>
     </row>
     <row r="16" spans="2:19">
@@ -5297,13 +5369,13 @@
         <v>41</v>
       </c>
       <c r="C16" s="6">
-        <v>186987</v>
+        <v>187010</v>
       </c>
       <c r="D16" t="s">
         <v>161</v>
       </c>
       <c r="E16" s="6">
-        <v>175995</v>
+        <v>176001</v>
       </c>
       <c r="F16" t="s">
         <v>281</v>
@@ -5315,7 +5387,7 @@
         <v>401</v>
       </c>
       <c r="I16" s="6">
-        <v>186987</v>
+        <v>2404</v>
       </c>
       <c r="J16" t="s">
         <v>521</v>
@@ -5333,13 +5405,13 @@
         <v>761</v>
       </c>
       <c r="O16" s="6">
-        <v>194320</v>
+        <v>194385</v>
       </c>
       <c r="P16" t="s">
         <v>881</v>
       </c>
       <c r="Q16" s="6">
-        <v>175518</v>
+        <v>175511</v>
       </c>
       <c r="R16" t="s">
         <v>1001</v>
@@ -5353,7 +5425,7 @@
         <v>42</v>
       </c>
       <c r="C17" s="6">
-        <v>171404</v>
+        <v>171407</v>
       </c>
       <c r="D17" t="s">
         <v>162</v>
@@ -5371,13 +5443,13 @@
         <v>402</v>
       </c>
       <c r="I17" s="6">
-        <v>171404</v>
+        <v>2254</v>
       </c>
       <c r="J17" t="s">
         <v>522</v>
       </c>
       <c r="K17" s="6">
-        <v>163004</v>
+        <v>162922</v>
       </c>
       <c r="L17" t="s">
         <v>642</v>
@@ -5389,13 +5461,13 @@
         <v>762</v>
       </c>
       <c r="O17" s="6">
-        <v>176416</v>
+        <v>176585</v>
       </c>
       <c r="P17" t="s">
         <v>882</v>
       </c>
       <c r="Q17" s="6">
-        <v>163694</v>
+        <v>163697</v>
       </c>
       <c r="R17" t="s">
         <v>1002</v>
@@ -5409,55 +5481,55 @@
         <v>43</v>
       </c>
       <c r="C18" s="6">
-        <v>3710145</v>
+        <v>3749704</v>
       </c>
       <c r="D18" t="s">
         <v>163</v>
       </c>
       <c r="E18" s="6">
-        <v>3751569</v>
+        <v>3756322</v>
       </c>
       <c r="F18" t="s">
         <v>283</v>
       </c>
       <c r="G18" s="6">
-        <v>3683093</v>
+        <v>3683896</v>
       </c>
       <c r="H18" t="s">
         <v>403</v>
       </c>
       <c r="I18" s="6">
-        <v>3710145</v>
+        <v>321</v>
       </c>
       <c r="J18" t="s">
         <v>523</v>
       </c>
       <c r="K18" s="6">
-        <v>3778436</v>
+        <v>3809883</v>
       </c>
       <c r="L18" t="s">
         <v>643</v>
       </c>
       <c r="M18" s="6">
-        <v>3683093</v>
+        <v>3683896</v>
       </c>
       <c r="N18" t="s">
         <v>763</v>
       </c>
       <c r="O18" s="6">
-        <v>3470982</v>
+        <v>3586496</v>
       </c>
       <c r="P18" t="s">
         <v>883</v>
       </c>
       <c r="Q18" s="6">
-        <v>3693353</v>
+        <v>3698446</v>
       </c>
       <c r="R18" t="s">
         <v>1003</v>
       </c>
       <c r="S18" s="6">
-        <v>3683093</v>
+        <v>3683896</v>
       </c>
     </row>
     <row r="19" spans="2:19">
@@ -5465,55 +5537,55 @@
         <v>44</v>
       </c>
       <c r="C19" s="6">
-        <v>571203</v>
+        <v>571217</v>
       </c>
       <c r="D19" t="s">
         <v>164</v>
       </c>
       <c r="E19" s="6">
-        <v>433229</v>
+        <v>433131</v>
       </c>
       <c r="F19" t="s">
         <v>284</v>
       </c>
       <c r="G19" s="6">
-        <v>421048</v>
+        <v>421259</v>
       </c>
       <c r="H19" t="s">
         <v>404</v>
       </c>
       <c r="I19" s="6">
-        <v>571203</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
         <v>524</v>
       </c>
       <c r="K19" s="6">
-        <v>1169856</v>
+        <v>1169887</v>
       </c>
       <c r="L19" t="s">
         <v>644</v>
       </c>
       <c r="M19" s="6">
-        <v>421271</v>
+        <v>421184</v>
       </c>
       <c r="N19" t="s">
         <v>764</v>
       </c>
       <c r="O19" s="6">
-        <v>596793</v>
+        <v>595839</v>
       </c>
       <c r="P19" t="s">
         <v>884</v>
       </c>
       <c r="Q19" s="6">
-        <v>461134</v>
+        <v>461795</v>
       </c>
       <c r="R19" t="s">
         <v>1004</v>
       </c>
       <c r="S19" s="6">
-        <v>421985</v>
+        <v>421887</v>
       </c>
     </row>
     <row r="20" spans="2:19">
@@ -5521,55 +5593,55 @@
         <v>45</v>
       </c>
       <c r="C20" s="6">
-        <v>992208</v>
+        <v>991616</v>
       </c>
       <c r="D20" t="s">
         <v>165</v>
       </c>
       <c r="E20" s="6">
-        <v>960443</v>
+        <v>958647</v>
       </c>
       <c r="F20" t="s">
         <v>285</v>
       </c>
       <c r="G20" s="6">
-        <v>945155</v>
+        <v>944611</v>
       </c>
       <c r="H20" t="s">
         <v>405</v>
       </c>
       <c r="I20" s="6">
-        <v>992196</v>
+        <v>327</v>
       </c>
       <c r="J20" t="s">
         <v>525</v>
       </c>
       <c r="K20" s="6">
-        <v>1779986</v>
+        <v>1782270</v>
       </c>
       <c r="L20" t="s">
         <v>645</v>
       </c>
       <c r="M20" s="6">
-        <v>944825</v>
+        <v>944600</v>
       </c>
       <c r="N20" t="s">
         <v>765</v>
       </c>
       <c r="O20" s="6">
-        <v>974570</v>
+        <v>973905</v>
       </c>
       <c r="P20" t="s">
         <v>885</v>
       </c>
       <c r="Q20" s="6">
-        <v>958846</v>
+        <v>958434</v>
       </c>
       <c r="R20" t="s">
         <v>1005</v>
       </c>
       <c r="S20" s="6">
-        <v>945151</v>
+        <v>944611</v>
       </c>
     </row>
     <row r="21" spans="2:19">
@@ -5577,55 +5649,55 @@
         <v>46</v>
       </c>
       <c r="C21" s="6">
-        <v>119100</v>
+        <v>123182</v>
       </c>
       <c r="D21" t="s">
         <v>166</v>
       </c>
       <c r="E21" s="6">
-        <v>96454</v>
+        <v>96557</v>
       </c>
       <c r="F21" t="s">
         <v>286</v>
       </c>
       <c r="G21" s="6">
-        <v>103443</v>
+        <v>103804</v>
       </c>
       <c r="H21" t="s">
         <v>406</v>
       </c>
       <c r="I21" s="6">
-        <v>119100</v>
+        <v>2216</v>
       </c>
       <c r="J21" t="s">
         <v>526</v>
       </c>
       <c r="K21" s="6">
-        <v>365307</v>
+        <v>374951</v>
       </c>
       <c r="L21" t="s">
         <v>646</v>
       </c>
       <c r="M21" s="6">
-        <v>103443</v>
+        <v>103804</v>
       </c>
       <c r="N21" t="s">
         <v>766</v>
       </c>
       <c r="O21" s="6">
-        <v>127883</v>
+        <v>133745</v>
       </c>
       <c r="P21" t="s">
         <v>886</v>
       </c>
       <c r="Q21" s="6">
-        <v>99078</v>
+        <v>99337</v>
       </c>
       <c r="R21" t="s">
         <v>1006</v>
       </c>
       <c r="S21" s="6">
-        <v>103443</v>
+        <v>103804</v>
       </c>
     </row>
     <row r="22" spans="2:19">
@@ -5633,55 +5705,55 @@
         <v>47</v>
       </c>
       <c r="C22" s="6">
-        <v>2757282</v>
+        <v>2757274</v>
       </c>
       <c r="D22" t="s">
         <v>167</v>
       </c>
       <c r="E22" s="6">
-        <v>2635325</v>
+        <v>2634900</v>
       </c>
       <c r="F22" t="s">
         <v>287</v>
       </c>
       <c r="G22" s="6">
-        <v>2595847</v>
+        <v>2595851</v>
       </c>
       <c r="H22" t="s">
         <v>407</v>
       </c>
       <c r="I22" s="6">
-        <v>2757282</v>
+        <v>269</v>
       </c>
       <c r="J22" t="s">
         <v>527</v>
       </c>
       <c r="K22" s="6">
-        <v>1074023</v>
+        <v>1337769</v>
       </c>
       <c r="L22" t="s">
         <v>647</v>
       </c>
       <c r="M22" s="6">
-        <v>2595847</v>
+        <v>2595851</v>
       </c>
       <c r="N22" t="s">
         <v>767</v>
       </c>
       <c r="O22" s="6">
-        <v>887472</v>
+        <v>1195354</v>
       </c>
       <c r="P22" t="s">
         <v>887</v>
       </c>
       <c r="Q22" s="6">
-        <v>2650351</v>
+        <v>2650358</v>
       </c>
       <c r="R22" t="s">
         <v>1007</v>
       </c>
       <c r="S22" s="6">
-        <v>2595847</v>
+        <v>2595851</v>
       </c>
     </row>
     <row r="23" spans="2:19">
@@ -5689,55 +5761,55 @@
         <v>48</v>
       </c>
       <c r="C23" s="6">
-        <v>298092</v>
+        <v>301355</v>
       </c>
       <c r="D23" t="s">
         <v>168</v>
       </c>
       <c r="E23" s="6">
-        <v>232427</v>
+        <v>232552</v>
       </c>
       <c r="F23" t="s">
         <v>288</v>
       </c>
       <c r="G23" s="6">
-        <v>254132</v>
+        <v>254559</v>
       </c>
       <c r="H23" t="s">
         <v>408</v>
       </c>
       <c r="I23" s="6">
-        <v>298092</v>
+        <v>2610</v>
       </c>
       <c r="J23" t="s">
         <v>528</v>
       </c>
       <c r="K23" s="6">
-        <v>623140</v>
+        <v>623542</v>
       </c>
       <c r="L23" t="s">
         <v>648</v>
       </c>
       <c r="M23" s="6">
-        <v>254132</v>
+        <v>254559</v>
       </c>
       <c r="N23" t="s">
         <v>768</v>
       </c>
       <c r="O23" s="6">
-        <v>306536</v>
+        <v>310477</v>
       </c>
       <c r="P23" t="s">
         <v>888</v>
       </c>
       <c r="Q23" s="6">
-        <v>242679</v>
+        <v>242946</v>
       </c>
       <c r="R23" t="s">
         <v>1008</v>
       </c>
       <c r="S23" s="6">
-        <v>253487</v>
+        <v>253867</v>
       </c>
     </row>
     <row r="24" spans="2:19">
@@ -5745,49 +5817,49 @@
         <v>49</v>
       </c>
       <c r="C24" s="6">
-        <v>54845</v>
+        <v>54991</v>
       </c>
       <c r="D24" t="s">
         <v>169</v>
       </c>
       <c r="E24" s="6">
-        <v>36820</v>
+        <v>36826</v>
       </c>
       <c r="F24" t="s">
         <v>289</v>
       </c>
       <c r="G24" s="6">
-        <v>38408</v>
+        <v>38410</v>
       </c>
       <c r="H24" t="s">
         <v>409</v>
       </c>
       <c r="I24" s="6">
-        <v>54845</v>
+        <v>1560</v>
       </c>
       <c r="J24" t="s">
         <v>529</v>
       </c>
       <c r="K24" s="6">
-        <v>122062</v>
+        <v>122051</v>
       </c>
       <c r="L24" t="s">
         <v>649</v>
       </c>
       <c r="M24" s="6">
-        <v>38408</v>
+        <v>38410</v>
       </c>
       <c r="N24" t="s">
         <v>769</v>
       </c>
       <c r="O24" s="6">
-        <v>61055</v>
+        <v>61336</v>
       </c>
       <c r="P24" t="s">
         <v>889</v>
       </c>
       <c r="Q24" s="6">
-        <v>37497</v>
+        <v>37538</v>
       </c>
       <c r="R24" t="s">
         <v>1009</v>
@@ -5801,55 +5873,55 @@
         <v>50</v>
       </c>
       <c r="C25" s="6">
-        <v>115864</v>
+        <v>116624</v>
       </c>
       <c r="D25" t="s">
         <v>170</v>
       </c>
       <c r="E25" s="6">
-        <v>111197</v>
+        <v>111204</v>
       </c>
       <c r="F25" t="s">
         <v>290</v>
       </c>
       <c r="G25" s="6">
-        <v>115046</v>
+        <v>115214</v>
       </c>
       <c r="H25" t="s">
         <v>410</v>
       </c>
       <c r="I25" s="6">
-        <v>115864</v>
+        <v>10734</v>
       </c>
       <c r="J25" t="s">
         <v>530</v>
       </c>
       <c r="K25" s="6">
-        <v>199281</v>
+        <v>200397</v>
       </c>
       <c r="L25" t="s">
         <v>650</v>
       </c>
       <c r="M25" s="6">
-        <v>115046</v>
+        <v>115214</v>
       </c>
       <c r="N25" t="s">
         <v>770</v>
       </c>
       <c r="O25" s="6">
-        <v>118085</v>
+        <v>118605</v>
       </c>
       <c r="P25" t="s">
         <v>890</v>
       </c>
       <c r="Q25" s="6">
-        <v>112102</v>
+        <v>112285</v>
       </c>
       <c r="R25" t="s">
         <v>1010</v>
       </c>
       <c r="S25" s="6">
-        <v>115046</v>
+        <v>115214</v>
       </c>
     </row>
     <row r="26" spans="2:19">
@@ -5857,55 +5929,55 @@
         <v>51</v>
       </c>
       <c r="C26" s="6">
-        <v>187747</v>
+        <v>188660</v>
       </c>
       <c r="D26" t="s">
         <v>171</v>
       </c>
       <c r="E26" s="6">
-        <v>191805</v>
+        <v>192545</v>
       </c>
       <c r="F26" t="s">
         <v>291</v>
       </c>
       <c r="G26" s="6">
-        <v>204834</v>
+        <v>206216</v>
       </c>
       <c r="H26" t="s">
         <v>411</v>
       </c>
       <c r="I26" s="6">
-        <v>187747</v>
+        <v>3810</v>
       </c>
       <c r="J26" t="s">
         <v>531</v>
       </c>
       <c r="K26" s="6">
-        <v>222002</v>
+        <v>223625</v>
       </c>
       <c r="L26" t="s">
         <v>651</v>
       </c>
       <c r="M26" s="6">
-        <v>204834</v>
+        <v>206216</v>
       </c>
       <c r="N26" t="s">
         <v>771</v>
       </c>
       <c r="O26" s="6">
-        <v>211039</v>
+        <v>212718</v>
       </c>
       <c r="P26" t="s">
         <v>891</v>
       </c>
       <c r="Q26" s="6">
-        <v>181957</v>
+        <v>182389</v>
       </c>
       <c r="R26" t="s">
         <v>1011</v>
       </c>
       <c r="S26" s="6">
-        <v>204834</v>
+        <v>206216</v>
       </c>
     </row>
     <row r="27" spans="2:19">
@@ -5913,55 +5985,55 @@
         <v>52</v>
       </c>
       <c r="C27" s="6">
-        <v>91566</v>
+        <v>91970</v>
       </c>
       <c r="D27" t="s">
         <v>172</v>
       </c>
       <c r="E27" s="6">
-        <v>143286</v>
+        <v>142114</v>
       </c>
       <c r="F27" t="s">
         <v>292</v>
       </c>
       <c r="G27" s="6">
-        <v>147972</v>
+        <v>148069</v>
       </c>
       <c r="H27" t="s">
         <v>412</v>
       </c>
       <c r="I27" s="6">
-        <v>91566</v>
+        <v>316</v>
       </c>
       <c r="J27" t="s">
         <v>532</v>
       </c>
       <c r="K27" s="6">
-        <v>87967</v>
+        <v>90654</v>
       </c>
       <c r="L27" t="s">
         <v>652</v>
       </c>
       <c r="M27" s="6">
-        <v>147972</v>
+        <v>148055</v>
       </c>
       <c r="N27" t="s">
         <v>772</v>
       </c>
       <c r="O27" s="6">
-        <v>63834</v>
+        <v>66603</v>
       </c>
       <c r="P27" t="s">
         <v>892</v>
       </c>
       <c r="Q27" s="6">
-        <v>119556</v>
+        <v>119596</v>
       </c>
       <c r="R27" t="s">
         <v>1012</v>
       </c>
       <c r="S27" s="6">
-        <v>147972</v>
+        <v>148081</v>
       </c>
     </row>
     <row r="28" spans="2:19">
@@ -5969,55 +6041,55 @@
         <v>53</v>
       </c>
       <c r="C28" s="6">
-        <v>36771</v>
+        <v>37747</v>
       </c>
       <c r="D28" t="s">
         <v>173</v>
       </c>
       <c r="E28" s="6">
-        <v>76385</v>
+        <v>76519</v>
       </c>
       <c r="F28" t="s">
         <v>293</v>
       </c>
       <c r="G28" s="6">
-        <v>75982</v>
+        <v>75997</v>
       </c>
       <c r="H28" t="s">
         <v>413</v>
       </c>
       <c r="I28" s="6">
-        <v>36771</v>
+        <v>236</v>
       </c>
       <c r="J28" t="s">
         <v>533</v>
       </c>
       <c r="K28" s="6">
-        <v>9989</v>
+        <v>10559</v>
       </c>
       <c r="L28" t="s">
         <v>653</v>
       </c>
       <c r="M28" s="6">
-        <v>75982</v>
+        <v>75997</v>
       </c>
       <c r="N28" t="s">
         <v>773</v>
       </c>
       <c r="O28" s="6">
-        <v>9119</v>
+        <v>9406</v>
       </c>
       <c r="P28" t="s">
         <v>893</v>
       </c>
       <c r="Q28" s="6">
-        <v>55477</v>
+        <v>56291</v>
       </c>
       <c r="R28" t="s">
         <v>1013</v>
       </c>
       <c r="S28" s="6">
-        <v>75982</v>
+        <v>75997</v>
       </c>
     </row>
     <row r="29" spans="2:19">
@@ -6025,55 +6097,55 @@
         <v>54</v>
       </c>
       <c r="C29" s="6">
-        <v>179246</v>
+        <v>172315</v>
       </c>
       <c r="D29" t="s">
         <v>174</v>
       </c>
       <c r="E29" s="6">
-        <v>239281</v>
+        <v>239123</v>
       </c>
       <c r="F29" t="s">
         <v>294</v>
       </c>
       <c r="G29" s="6">
-        <v>249788</v>
+        <v>249790</v>
       </c>
       <c r="H29" t="s">
         <v>414</v>
       </c>
       <c r="I29" s="6">
-        <v>179269</v>
+        <v>215</v>
       </c>
       <c r="J29" t="s">
         <v>534</v>
       </c>
       <c r="K29" s="6">
-        <v>155077</v>
+        <v>154643</v>
       </c>
       <c r="L29" t="s">
         <v>654</v>
       </c>
       <c r="M29" s="6">
-        <v>249788</v>
+        <v>249790</v>
       </c>
       <c r="N29" t="s">
         <v>774</v>
       </c>
       <c r="O29" s="6">
-        <v>128893</v>
+        <v>128184</v>
       </c>
       <c r="P29" t="s">
         <v>894</v>
       </c>
       <c r="Q29" s="6">
-        <v>222082</v>
+        <v>220268</v>
       </c>
       <c r="R29" t="s">
         <v>1014</v>
       </c>
       <c r="S29" s="6">
-        <v>249788</v>
+        <v>249790</v>
       </c>
     </row>
     <row r="30" spans="2:19">
@@ -6081,55 +6153,55 @@
         <v>55</v>
       </c>
       <c r="C30" s="6">
-        <v>238022</v>
+        <v>240202</v>
       </c>
       <c r="D30" t="s">
         <v>175</v>
       </c>
       <c r="E30" s="6">
-        <v>501557</v>
+        <v>510263</v>
       </c>
       <c r="F30" t="s">
         <v>295</v>
       </c>
       <c r="G30" s="6">
-        <v>238022</v>
+        <v>240202</v>
       </c>
       <c r="H30" t="s">
         <v>415</v>
       </c>
       <c r="I30" s="6">
-        <v>238022</v>
+        <v>240202</v>
       </c>
       <c r="J30" t="s">
         <v>535</v>
       </c>
       <c r="K30" s="6">
-        <v>238022</v>
+        <v>240202</v>
       </c>
       <c r="L30" t="s">
         <v>655</v>
       </c>
       <c r="M30" s="6">
-        <v>238022</v>
+        <v>240202</v>
       </c>
       <c r="N30" t="s">
         <v>775</v>
       </c>
       <c r="O30" s="6">
-        <v>238022</v>
+        <v>240202</v>
       </c>
       <c r="P30" t="s">
         <v>895</v>
       </c>
       <c r="Q30" s="6">
-        <v>238022</v>
+        <v>240202</v>
       </c>
       <c r="R30" t="s">
         <v>1015</v>
       </c>
       <c r="S30" s="6">
-        <v>238022</v>
+        <v>240202</v>
       </c>
     </row>
     <row r="31" spans="2:19">
@@ -6155,13 +6227,13 @@
         <v>416</v>
       </c>
       <c r="I31" s="6">
-        <v>202742</v>
+        <v>2985</v>
       </c>
       <c r="J31" t="s">
         <v>536</v>
       </c>
       <c r="K31" s="6">
-        <v>203646</v>
+        <v>203661</v>
       </c>
       <c r="L31" t="s">
         <v>656</v>
@@ -6173,7 +6245,7 @@
         <v>776</v>
       </c>
       <c r="O31" s="6">
-        <v>223747</v>
+        <v>223776</v>
       </c>
       <c r="P31" t="s">
         <v>896</v>
@@ -6193,55 +6265,55 @@
         <v>57</v>
       </c>
       <c r="C32" s="6">
-        <v>1618035</v>
+        <v>1618191</v>
       </c>
       <c r="D32" t="s">
         <v>177</v>
       </c>
       <c r="E32" s="6">
-        <v>1712437</v>
+        <v>1712403</v>
       </c>
       <c r="F32" t="s">
         <v>297</v>
       </c>
       <c r="G32" s="6">
-        <v>1645227</v>
+        <v>1645259</v>
       </c>
       <c r="H32" t="s">
         <v>417</v>
       </c>
       <c r="I32" s="6">
-        <v>1618035</v>
+        <v>328</v>
       </c>
       <c r="J32" t="s">
         <v>537</v>
       </c>
       <c r="K32" s="6">
-        <v>1048605</v>
+        <v>1051276</v>
       </c>
       <c r="L32" t="s">
         <v>657</v>
       </c>
       <c r="M32" s="6">
-        <v>1645227</v>
+        <v>1645259</v>
       </c>
       <c r="N32" t="s">
         <v>777</v>
       </c>
       <c r="O32" s="6">
-        <v>664446</v>
+        <v>672431</v>
       </c>
       <c r="P32" t="s">
         <v>897</v>
       </c>
       <c r="Q32" s="6">
-        <v>1580435</v>
+        <v>1581267</v>
       </c>
       <c r="R32" t="s">
         <v>1017</v>
       </c>
       <c r="S32" s="6">
-        <v>1645227</v>
+        <v>1645259</v>
       </c>
     </row>
     <row r="33" spans="2:19">
@@ -6267,7 +6339,7 @@
         <v>418</v>
       </c>
       <c r="I33" s="6">
-        <v>145302</v>
+        <v>310</v>
       </c>
       <c r="J33" t="s">
         <v>538</v>
@@ -6285,7 +6357,7 @@
         <v>778</v>
       </c>
       <c r="O33" s="6">
-        <v>56714</v>
+        <v>56748</v>
       </c>
       <c r="P33" t="s">
         <v>898</v>
@@ -6305,7 +6377,7 @@
         <v>59</v>
       </c>
       <c r="C34" s="6">
-        <v>341903</v>
+        <v>341904</v>
       </c>
       <c r="D34" t="s">
         <v>179</v>
@@ -6323,13 +6395,13 @@
         <v>419</v>
       </c>
       <c r="I34" s="6">
-        <v>341903</v>
+        <v>3398</v>
       </c>
       <c r="J34" t="s">
         <v>539</v>
       </c>
       <c r="K34" s="6">
-        <v>485673</v>
+        <v>485647</v>
       </c>
       <c r="L34" t="s">
         <v>659</v>
@@ -6341,7 +6413,7 @@
         <v>779</v>
       </c>
       <c r="O34" s="6">
-        <v>356740</v>
+        <v>356794</v>
       </c>
       <c r="P34" t="s">
         <v>899</v>
@@ -6361,55 +6433,55 @@
         <v>60</v>
       </c>
       <c r="C35" s="6">
-        <v>428058</v>
+        <v>413543</v>
       </c>
       <c r="D35" t="s">
         <v>180</v>
       </c>
       <c r="E35" s="6">
-        <v>476761</v>
+        <v>473450</v>
       </c>
       <c r="F35" t="s">
         <v>300</v>
       </c>
       <c r="G35" s="6">
-        <v>502157</v>
+        <v>501321</v>
       </c>
       <c r="H35" t="s">
         <v>420</v>
       </c>
       <c r="I35" s="6">
-        <v>428058</v>
+        <v>340</v>
       </c>
       <c r="J35" t="s">
         <v>540</v>
       </c>
       <c r="K35" s="6">
-        <v>815765</v>
+        <v>811437</v>
       </c>
       <c r="L35" t="s">
         <v>660</v>
       </c>
       <c r="M35" s="6">
-        <v>502157</v>
+        <v>501321</v>
       </c>
       <c r="N35" t="s">
         <v>780</v>
       </c>
       <c r="O35" s="6">
-        <v>357450</v>
+        <v>344522</v>
       </c>
       <c r="P35" t="s">
         <v>900</v>
       </c>
       <c r="Q35" s="6">
-        <v>490822</v>
+        <v>487198</v>
       </c>
       <c r="R35" t="s">
         <v>1020</v>
       </c>
       <c r="S35" s="6">
-        <v>502157</v>
+        <v>501321</v>
       </c>
     </row>
     <row r="36" spans="2:19">
@@ -6417,55 +6489,55 @@
         <v>61</v>
       </c>
       <c r="C36" s="6">
-        <v>154622</v>
+        <v>154394</v>
       </c>
       <c r="D36" t="s">
         <v>181</v>
       </c>
       <c r="E36" s="6">
-        <v>188359</v>
+        <v>188377</v>
       </c>
       <c r="F36" t="s">
         <v>301</v>
       </c>
       <c r="G36" s="6">
-        <v>196317</v>
+        <v>196315</v>
       </c>
       <c r="H36" t="s">
         <v>421</v>
       </c>
       <c r="I36" s="6">
-        <v>154622</v>
+        <v>288</v>
       </c>
       <c r="J36" t="s">
         <v>541</v>
       </c>
       <c r="K36" s="6">
-        <v>217546</v>
+        <v>217377</v>
       </c>
       <c r="L36" t="s">
         <v>661</v>
       </c>
       <c r="M36" s="6">
-        <v>196317</v>
+        <v>196315</v>
       </c>
       <c r="N36" t="s">
         <v>781</v>
       </c>
       <c r="O36" s="6">
-        <v>136144</v>
+        <v>135349</v>
       </c>
       <c r="P36" t="s">
         <v>901</v>
       </c>
       <c r="Q36" s="6">
-        <v>183614</v>
+        <v>183699</v>
       </c>
       <c r="R36" t="s">
         <v>1021</v>
       </c>
       <c r="S36" s="6">
-        <v>196317</v>
+        <v>196315</v>
       </c>
     </row>
     <row r="37" spans="2:19">
@@ -6473,55 +6545,55 @@
         <v>62</v>
       </c>
       <c r="C37" s="6">
-        <v>231070</v>
+        <v>230993</v>
       </c>
       <c r="D37" t="s">
         <v>182</v>
       </c>
       <c r="E37" s="6">
-        <v>252480</v>
+        <v>252494</v>
       </c>
       <c r="F37" t="s">
         <v>302</v>
       </c>
       <c r="G37" s="6">
-        <v>276683</v>
+        <v>276679</v>
       </c>
       <c r="H37" t="s">
         <v>422</v>
       </c>
       <c r="I37" s="6">
-        <v>231070</v>
+        <v>497</v>
       </c>
       <c r="J37" t="s">
         <v>542</v>
       </c>
       <c r="K37" s="6">
-        <v>94944</v>
+        <v>93638</v>
       </c>
       <c r="L37" t="s">
         <v>662</v>
       </c>
       <c r="M37" s="6">
-        <v>276684</v>
+        <v>276679</v>
       </c>
       <c r="N37" t="s">
         <v>782</v>
       </c>
       <c r="O37" s="6">
-        <v>94480</v>
+        <v>94554</v>
       </c>
       <c r="P37" t="s">
         <v>902</v>
       </c>
       <c r="Q37" s="6">
-        <v>264756</v>
+        <v>264743</v>
       </c>
       <c r="R37" t="s">
         <v>1022</v>
       </c>
       <c r="S37" s="6">
-        <v>276684</v>
+        <v>276679</v>
       </c>
     </row>
     <row r="38" spans="2:19">
@@ -6529,55 +6601,55 @@
         <v>63</v>
       </c>
       <c r="C38" s="6">
-        <v>819757</v>
+        <v>819773</v>
       </c>
       <c r="D38" t="s">
         <v>183</v>
       </c>
       <c r="E38" s="6">
-        <v>879861</v>
+        <v>859214</v>
       </c>
       <c r="F38" t="s">
         <v>303</v>
       </c>
       <c r="G38" s="6">
-        <v>977881</v>
+        <v>976041</v>
       </c>
       <c r="H38" t="s">
         <v>423</v>
       </c>
       <c r="I38" s="6">
-        <v>819757</v>
+        <v>226</v>
       </c>
       <c r="J38" t="s">
         <v>543</v>
       </c>
       <c r="K38" s="6">
-        <v>332243</v>
+        <v>458928</v>
       </c>
       <c r="L38" t="s">
         <v>663</v>
       </c>
       <c r="M38" s="6">
-        <v>977881</v>
+        <v>976041</v>
       </c>
       <c r="N38" t="s">
         <v>783</v>
       </c>
       <c r="O38" s="6">
-        <v>600345</v>
+        <v>599996</v>
       </c>
       <c r="P38" t="s">
         <v>903</v>
       </c>
       <c r="Q38" s="6">
-        <v>894254</v>
+        <v>894244</v>
       </c>
       <c r="R38" t="s">
         <v>1023</v>
       </c>
       <c r="S38" s="6">
-        <v>436067</v>
+        <v>435493</v>
       </c>
     </row>
     <row r="39" spans="2:19">
@@ -6603,13 +6675,13 @@
         <v>424</v>
       </c>
       <c r="I39" s="6">
-        <v>228594</v>
+        <v>3060</v>
       </c>
       <c r="J39" t="s">
         <v>544</v>
       </c>
       <c r="K39" s="6">
-        <v>243025</v>
+        <v>243169</v>
       </c>
       <c r="L39" t="s">
         <v>664</v>
@@ -6621,13 +6693,13 @@
         <v>784</v>
       </c>
       <c r="O39" s="6">
-        <v>261380</v>
+        <v>261492</v>
       </c>
       <c r="P39" t="s">
         <v>904</v>
       </c>
       <c r="Q39" s="6">
-        <v>227227</v>
+        <v>227272</v>
       </c>
       <c r="R39" t="s">
         <v>1024</v>
@@ -6641,25 +6713,25 @@
         <v>65</v>
       </c>
       <c r="C40" s="6">
-        <v>275913</v>
+        <v>275924</v>
       </c>
       <c r="D40" t="s">
         <v>185</v>
       </c>
       <c r="E40" s="6">
-        <v>270264</v>
+        <v>270278</v>
       </c>
       <c r="F40" t="s">
         <v>305</v>
       </c>
       <c r="G40" s="6">
-        <v>283789</v>
+        <v>283804</v>
       </c>
       <c r="H40" t="s">
         <v>425</v>
       </c>
       <c r="I40" s="6">
-        <v>275913</v>
+        <v>2048</v>
       </c>
       <c r="J40" t="s">
         <v>545</v>
@@ -6671,25 +6743,25 @@
         <v>665</v>
       </c>
       <c r="M40" s="6">
-        <v>283789</v>
+        <v>283804</v>
       </c>
       <c r="N40" t="s">
         <v>785</v>
       </c>
       <c r="O40" s="6">
-        <v>299793</v>
+        <v>299820</v>
       </c>
       <c r="P40" t="s">
         <v>905</v>
       </c>
       <c r="Q40" s="6">
-        <v>268255</v>
+        <v>268260</v>
       </c>
       <c r="R40" t="s">
         <v>1025</v>
       </c>
       <c r="S40" s="6">
-        <v>283789</v>
+        <v>283804</v>
       </c>
     </row>
     <row r="41" spans="2:19">
@@ -6715,7 +6787,7 @@
         <v>426</v>
       </c>
       <c r="I41" s="6">
-        <v>212131</v>
+        <v>4148</v>
       </c>
       <c r="J41" t="s">
         <v>546</v>
@@ -6771,7 +6843,7 @@
         <v>427</v>
       </c>
       <c r="I42" s="6">
-        <v>24254</v>
+        <v>2029</v>
       </c>
       <c r="J42" t="s">
         <v>547</v>
@@ -6809,13 +6881,13 @@
         <v>68</v>
       </c>
       <c r="C43" s="6">
-        <v>18034</v>
+        <v>18098</v>
       </c>
       <c r="D43" t="s">
         <v>188</v>
       </c>
       <c r="E43" s="6">
-        <v>16429</v>
+        <v>16430</v>
       </c>
       <c r="F43" t="s">
         <v>308</v>
@@ -6827,7 +6899,7 @@
         <v>428</v>
       </c>
       <c r="I43" s="6">
-        <v>18034</v>
+        <v>329</v>
       </c>
       <c r="J43" t="s">
         <v>548</v>
@@ -6845,19 +6917,19 @@
         <v>788</v>
       </c>
       <c r="O43" s="6">
-        <v>18120</v>
+        <v>18187</v>
       </c>
       <c r="P43" t="s">
         <v>908</v>
       </c>
       <c r="Q43" s="6">
-        <v>16526</v>
+        <v>16527</v>
       </c>
       <c r="R43" t="s">
         <v>1028</v>
       </c>
       <c r="S43" s="6">
-        <v>17087</v>
+        <v>17085</v>
       </c>
     </row>
     <row r="44" spans="2:19">
@@ -6865,7 +6937,7 @@
         <v>69</v>
       </c>
       <c r="C44" s="6">
-        <v>27175</v>
+        <v>27165</v>
       </c>
       <c r="D44" t="s">
         <v>189</v>
@@ -6877,13 +6949,13 @@
         <v>309</v>
       </c>
       <c r="G44" s="6">
-        <v>26031</v>
+        <v>26036</v>
       </c>
       <c r="H44" t="s">
         <v>429</v>
       </c>
       <c r="I44" s="6">
-        <v>27175</v>
+        <v>420</v>
       </c>
       <c r="J44" t="s">
         <v>549</v>
@@ -6895,25 +6967,25 @@
         <v>669</v>
       </c>
       <c r="M44" s="6">
-        <v>26031</v>
+        <v>26036</v>
       </c>
       <c r="N44" t="s">
         <v>789</v>
       </c>
       <c r="O44" s="6">
-        <v>27400</v>
+        <v>27426</v>
       </c>
       <c r="P44" t="s">
         <v>909</v>
       </c>
       <c r="Q44" s="6">
-        <v>25272</v>
+        <v>25281</v>
       </c>
       <c r="R44" t="s">
         <v>1029</v>
       </c>
       <c r="S44" s="6">
-        <v>26055</v>
+        <v>26054</v>
       </c>
     </row>
     <row r="45" spans="2:19">
@@ -6921,25 +6993,25 @@
         <v>70</v>
       </c>
       <c r="C45" s="6">
-        <v>27177</v>
+        <v>27266</v>
       </c>
       <c r="D45" t="s">
         <v>190</v>
       </c>
       <c r="E45" s="6">
-        <v>23163</v>
+        <v>23156</v>
       </c>
       <c r="F45" t="s">
         <v>310</v>
       </c>
       <c r="G45" s="6">
-        <v>24115</v>
+        <v>24131</v>
       </c>
       <c r="H45" t="s">
         <v>430</v>
       </c>
       <c r="I45" s="6">
-        <v>27177</v>
+        <v>391</v>
       </c>
       <c r="J45" t="s">
         <v>550</v>
@@ -6951,25 +7023,25 @@
         <v>670</v>
       </c>
       <c r="M45" s="6">
-        <v>24115</v>
+        <v>24131</v>
       </c>
       <c r="N45" t="s">
         <v>790</v>
       </c>
       <c r="O45" s="6">
-        <v>27903</v>
+        <v>27993</v>
       </c>
       <c r="P45" t="s">
         <v>910</v>
       </c>
       <c r="Q45" s="6">
-        <v>23305</v>
+        <v>23320</v>
       </c>
       <c r="R45" t="s">
         <v>1030</v>
       </c>
       <c r="S45" s="6">
-        <v>24194</v>
+        <v>24201</v>
       </c>
     </row>
     <row r="46" spans="2:19">
@@ -6977,7 +7049,7 @@
         <v>71</v>
       </c>
       <c r="C46" s="6">
-        <v>31517</v>
+        <v>31539</v>
       </c>
       <c r="D46" t="s">
         <v>191</v>
@@ -6995,7 +7067,7 @@
         <v>431</v>
       </c>
       <c r="I46" s="6">
-        <v>31517</v>
+        <v>415</v>
       </c>
       <c r="J46" t="s">
         <v>551</v>
@@ -7013,7 +7085,7 @@
         <v>791</v>
       </c>
       <c r="O46" s="6">
-        <v>32480</v>
+        <v>32489</v>
       </c>
       <c r="P46" t="s">
         <v>911</v>
@@ -7033,7 +7105,7 @@
         <v>72</v>
       </c>
       <c r="C47" s="6">
-        <v>17592</v>
+        <v>17623</v>
       </c>
       <c r="D47" t="s">
         <v>192</v>
@@ -7051,7 +7123,7 @@
         <v>432</v>
       </c>
       <c r="I47" s="6">
-        <v>17592</v>
+        <v>358</v>
       </c>
       <c r="J47" t="s">
         <v>552</v>
@@ -7069,7 +7141,7 @@
         <v>792</v>
       </c>
       <c r="O47" s="6">
-        <v>18006</v>
+        <v>18046</v>
       </c>
       <c r="P47" t="s">
         <v>912</v>
@@ -7107,7 +7179,7 @@
         <v>433</v>
       </c>
       <c r="I48" s="6">
-        <v>63952</v>
+        <v>110</v>
       </c>
       <c r="J48" t="s">
         <v>553</v>
@@ -7131,7 +7203,7 @@
         <v>913</v>
       </c>
       <c r="Q48" s="6">
-        <v>59715</v>
+        <v>59718</v>
       </c>
       <c r="R48" t="s">
         <v>1033</v>
@@ -7145,55 +7217,55 @@
         <v>74</v>
       </c>
       <c r="C49" s="6">
-        <v>234619</v>
+        <v>234196</v>
       </c>
       <c r="D49" t="s">
         <v>194</v>
       </c>
       <c r="E49" s="6">
-        <v>197823</v>
+        <v>197743</v>
       </c>
       <c r="F49" t="s">
         <v>314</v>
       </c>
       <c r="G49" s="6">
-        <v>194843</v>
+        <v>194751</v>
       </c>
       <c r="H49" t="s">
         <v>434</v>
       </c>
       <c r="I49" s="6">
-        <v>234619</v>
+        <v>107</v>
       </c>
       <c r="J49" t="s">
         <v>554</v>
       </c>
       <c r="K49" s="6">
-        <v>278550</v>
+        <v>278693</v>
       </c>
       <c r="L49" t="s">
         <v>674</v>
       </c>
       <c r="M49" s="6">
-        <v>194843</v>
+        <v>194751</v>
       </c>
       <c r="N49" t="s">
         <v>794</v>
       </c>
       <c r="O49" s="6">
-        <v>242848</v>
+        <v>242638</v>
       </c>
       <c r="P49" t="s">
         <v>914</v>
       </c>
       <c r="Q49" s="6">
-        <v>207237</v>
+        <v>206801</v>
       </c>
       <c r="R49" t="s">
         <v>1034</v>
       </c>
       <c r="S49" s="6">
-        <v>195194</v>
+        <v>195156</v>
       </c>
     </row>
     <row r="50" spans="2:19">
@@ -7201,55 +7273,55 @@
         <v>75</v>
       </c>
       <c r="C50" s="6">
-        <v>66903</v>
+        <v>61651</v>
       </c>
       <c r="D50" t="s">
         <v>195</v>
       </c>
       <c r="E50" s="6">
-        <v>72588</v>
+        <v>72044</v>
       </c>
       <c r="F50" t="s">
         <v>315</v>
       </c>
       <c r="G50" s="6">
-        <v>81061</v>
+        <v>80556</v>
       </c>
       <c r="H50" t="s">
         <v>435</v>
       </c>
       <c r="I50" s="6">
-        <v>66903</v>
+        <v>105</v>
       </c>
       <c r="J50" t="s">
         <v>555</v>
       </c>
       <c r="K50" s="6">
-        <v>76778</v>
+        <v>73883</v>
       </c>
       <c r="L50" t="s">
         <v>675</v>
       </c>
       <c r="M50" s="6">
-        <v>81061</v>
+        <v>80556</v>
       </c>
       <c r="N50" t="s">
         <v>795</v>
       </c>
       <c r="O50" s="6">
-        <v>49787</v>
+        <v>46125</v>
       </c>
       <c r="P50" t="s">
         <v>915</v>
       </c>
       <c r="Q50" s="6">
-        <v>79955</v>
+        <v>78665</v>
       </c>
       <c r="R50" t="s">
         <v>1035</v>
       </c>
       <c r="S50" s="6">
-        <v>81061</v>
+        <v>80556</v>
       </c>
     </row>
     <row r="51" spans="2:19">
@@ -7257,55 +7329,55 @@
         <v>76</v>
       </c>
       <c r="C51" s="6">
-        <v>42716</v>
+        <v>42149</v>
       </c>
       <c r="D51" t="s">
         <v>196</v>
       </c>
       <c r="E51" s="6">
-        <v>49510</v>
+        <v>49374</v>
       </c>
       <c r="F51" t="s">
         <v>316</v>
       </c>
       <c r="G51" s="6">
-        <v>49219</v>
+        <v>49163</v>
       </c>
       <c r="H51" t="s">
         <v>436</v>
       </c>
       <c r="I51" s="6">
-        <v>42716</v>
+        <v>105</v>
       </c>
       <c r="J51" t="s">
         <v>556</v>
       </c>
       <c r="K51" s="6">
-        <v>66190</v>
+        <v>66048</v>
       </c>
       <c r="L51" t="s">
         <v>676</v>
       </c>
       <c r="M51" s="6">
-        <v>49219</v>
+        <v>49163</v>
       </c>
       <c r="N51" t="s">
         <v>796</v>
       </c>
       <c r="O51" s="6">
-        <v>38000</v>
+        <v>37744</v>
       </c>
       <c r="P51" t="s">
         <v>916</v>
       </c>
       <c r="Q51" s="6">
-        <v>46448</v>
+        <v>46051</v>
       </c>
       <c r="R51" t="s">
         <v>1036</v>
       </c>
       <c r="S51" s="6">
-        <v>49219</v>
+        <v>49163</v>
       </c>
     </row>
     <row r="52" spans="2:19">
@@ -7313,7 +7385,7 @@
         <v>77</v>
       </c>
       <c r="C52" s="6">
-        <v>29717</v>
+        <v>29763</v>
       </c>
       <c r="D52" t="s">
         <v>197</v>
@@ -7325,13 +7397,13 @@
         <v>317</v>
       </c>
       <c r="G52" s="6">
-        <v>27658</v>
+        <v>27657</v>
       </c>
       <c r="H52" t="s">
         <v>437</v>
       </c>
       <c r="I52" s="6">
-        <v>29717</v>
+        <v>396</v>
       </c>
       <c r="J52" t="s">
         <v>557</v>
@@ -7343,13 +7415,13 @@
         <v>677</v>
       </c>
       <c r="M52" s="6">
-        <v>27658</v>
+        <v>27657</v>
       </c>
       <c r="N52" t="s">
         <v>797</v>
       </c>
       <c r="O52" s="6">
-        <v>29940</v>
+        <v>29972</v>
       </c>
       <c r="P52" t="s">
         <v>917</v>
@@ -7361,7 +7433,7 @@
         <v>1037</v>
       </c>
       <c r="S52" s="6">
-        <v>27658</v>
+        <v>27660</v>
       </c>
     </row>
     <row r="53" spans="2:19">
@@ -7369,7 +7441,7 @@
         <v>78</v>
       </c>
       <c r="C53" s="6">
-        <v>37691</v>
+        <v>37761</v>
       </c>
       <c r="D53" t="s">
         <v>198</v>
@@ -7387,7 +7459,7 @@
         <v>438</v>
       </c>
       <c r="I53" s="6">
-        <v>37691</v>
+        <v>443</v>
       </c>
       <c r="J53" t="s">
         <v>558</v>
@@ -7405,7 +7477,7 @@
         <v>798</v>
       </c>
       <c r="O53" s="6">
-        <v>38172</v>
+        <v>38209</v>
       </c>
       <c r="P53" t="s">
         <v>918</v>
@@ -7425,7 +7497,7 @@
         <v>79</v>
       </c>
       <c r="C54" s="6">
-        <v>16029</v>
+        <v>16048</v>
       </c>
       <c r="D54" t="s">
         <v>199</v>
@@ -7437,13 +7509,13 @@
         <v>319</v>
       </c>
       <c r="G54" s="6">
-        <v>13944</v>
+        <v>13950</v>
       </c>
       <c r="H54" t="s">
         <v>439</v>
       </c>
       <c r="I54" s="6">
-        <v>16029</v>
+        <v>296</v>
       </c>
       <c r="J54" t="s">
         <v>559</v>
@@ -7455,13 +7527,13 @@
         <v>679</v>
       </c>
       <c r="M54" s="6">
-        <v>13944</v>
+        <v>13950</v>
       </c>
       <c r="N54" t="s">
         <v>799</v>
       </c>
       <c r="O54" s="6">
-        <v>16367</v>
+        <v>16383</v>
       </c>
       <c r="P54" t="s">
         <v>919</v>
@@ -7473,7 +7545,7 @@
         <v>1039</v>
       </c>
       <c r="S54" s="6">
-        <v>13983</v>
+        <v>13985</v>
       </c>
     </row>
     <row r="55" spans="2:19">
@@ -7481,25 +7553,25 @@
         <v>80</v>
       </c>
       <c r="C55" s="6">
-        <v>18713</v>
+        <v>18941</v>
       </c>
       <c r="D55" t="s">
         <v>200</v>
       </c>
       <c r="E55" s="6">
-        <v>13043</v>
+        <v>13042</v>
       </c>
       <c r="F55" t="s">
         <v>320</v>
       </c>
       <c r="G55" s="6">
-        <v>13981</v>
+        <v>14003</v>
       </c>
       <c r="H55" t="s">
         <v>440</v>
       </c>
       <c r="I55" s="6">
-        <v>18713</v>
+        <v>315</v>
       </c>
       <c r="J55" t="s">
         <v>560</v>
@@ -7511,25 +7583,25 @@
         <v>680</v>
       </c>
       <c r="M55" s="6">
-        <v>13981</v>
+        <v>14003</v>
       </c>
       <c r="N55" t="s">
         <v>800</v>
       </c>
       <c r="O55" s="6">
-        <v>18997</v>
+        <v>19204</v>
       </c>
       <c r="P55" t="s">
         <v>920</v>
       </c>
       <c r="Q55" s="6">
-        <v>13692</v>
+        <v>13716</v>
       </c>
       <c r="R55" t="s">
         <v>1040</v>
       </c>
       <c r="S55" s="6">
-        <v>14014</v>
+        <v>14034</v>
       </c>
     </row>
     <row r="56" spans="2:19">
@@ -7537,7 +7609,7 @@
         <v>81</v>
       </c>
       <c r="C56" s="6">
-        <v>20674</v>
+        <v>20783</v>
       </c>
       <c r="D56" t="s">
         <v>201</v>
@@ -7555,7 +7627,7 @@
         <v>441</v>
       </c>
       <c r="I56" s="6">
-        <v>20674</v>
+        <v>315</v>
       </c>
       <c r="J56" t="s">
         <v>561</v>
@@ -7573,13 +7645,13 @@
         <v>801</v>
       </c>
       <c r="O56" s="6">
-        <v>21026</v>
+        <v>21164</v>
       </c>
       <c r="P56" t="s">
         <v>921</v>
       </c>
       <c r="Q56" s="6">
-        <v>17514</v>
+        <v>17521</v>
       </c>
       <c r="R56" t="s">
         <v>1041</v>
@@ -7593,7 +7665,7 @@
         <v>82</v>
       </c>
       <c r="C57" s="6">
-        <v>18971</v>
+        <v>18982</v>
       </c>
       <c r="D57" t="s">
         <v>202</v>
@@ -7611,13 +7683,13 @@
         <v>442</v>
       </c>
       <c r="I57" s="6">
-        <v>18971</v>
+        <v>306</v>
       </c>
       <c r="J57" t="s">
         <v>562</v>
       </c>
       <c r="K57" s="6">
-        <v>14324</v>
+        <v>14331</v>
       </c>
       <c r="L57" t="s">
         <v>682</v>
@@ -7629,7 +7701,7 @@
         <v>802</v>
       </c>
       <c r="O57" s="6">
-        <v>19265</v>
+        <v>19275</v>
       </c>
       <c r="P57" t="s">
         <v>922</v>
@@ -7649,55 +7721,55 @@
         <v>83</v>
       </c>
       <c r="C58" s="6">
-        <v>284475</v>
+        <v>274281</v>
       </c>
       <c r="D58" t="s">
         <v>203</v>
       </c>
       <c r="E58" s="6">
-        <v>234301</v>
+        <v>234331</v>
       </c>
       <c r="F58" t="s">
         <v>323</v>
       </c>
       <c r="G58" s="6">
-        <v>227188</v>
+        <v>227207</v>
       </c>
       <c r="H58" t="s">
         <v>443</v>
       </c>
       <c r="I58" s="6">
-        <v>284475</v>
+        <v>109</v>
       </c>
       <c r="J58" t="s">
         <v>563</v>
       </c>
       <c r="K58" s="6">
-        <v>298784</v>
+        <v>302156</v>
       </c>
       <c r="L58" t="s">
         <v>683</v>
       </c>
       <c r="M58" s="6">
-        <v>227188</v>
+        <v>227207</v>
       </c>
       <c r="N58" t="s">
         <v>803</v>
       </c>
       <c r="O58" s="6">
-        <v>274450</v>
+        <v>254774</v>
       </c>
       <c r="P58" t="s">
         <v>923</v>
       </c>
       <c r="Q58" s="6">
-        <v>254632</v>
+        <v>255087</v>
       </c>
       <c r="R58" t="s">
         <v>1043</v>
       </c>
       <c r="S58" s="6">
-        <v>232086</v>
+        <v>232114</v>
       </c>
     </row>
     <row r="59" spans="2:19">
@@ -7705,55 +7777,55 @@
         <v>84</v>
       </c>
       <c r="C59" s="6">
-        <v>44358</v>
+        <v>44229</v>
       </c>
       <c r="D59" t="s">
         <v>204</v>
       </c>
       <c r="E59" s="6">
-        <v>36961</v>
+        <v>36935</v>
       </c>
       <c r="F59" t="s">
         <v>324</v>
       </c>
       <c r="G59" s="6">
-        <v>36407</v>
+        <v>36428</v>
       </c>
       <c r="H59" t="s">
         <v>444</v>
       </c>
       <c r="I59" s="6">
-        <v>44358</v>
+        <v>100</v>
       </c>
       <c r="J59" t="s">
         <v>564</v>
       </c>
       <c r="K59" s="6">
-        <v>110143</v>
+        <v>110111</v>
       </c>
       <c r="L59" t="s">
         <v>684</v>
       </c>
       <c r="M59" s="6">
-        <v>36407</v>
+        <v>36428</v>
       </c>
       <c r="N59" t="s">
         <v>804</v>
       </c>
       <c r="O59" s="6">
-        <v>44007</v>
+        <v>43786</v>
       </c>
       <c r="P59" t="s">
         <v>924</v>
       </c>
       <c r="Q59" s="6">
-        <v>36497</v>
+        <v>36525</v>
       </c>
       <c r="R59" t="s">
         <v>1044</v>
       </c>
       <c r="S59" s="6">
-        <v>37255</v>
+        <v>37225</v>
       </c>
     </row>
     <row r="60" spans="2:19">
@@ -7761,55 +7833,55 @@
         <v>85</v>
       </c>
       <c r="C60" s="6">
-        <v>84548</v>
+        <v>82188</v>
       </c>
       <c r="D60" t="s">
         <v>205</v>
       </c>
       <c r="E60" s="6">
-        <v>85625</v>
+        <v>85599</v>
       </c>
       <c r="F60" t="s">
         <v>325</v>
       </c>
       <c r="G60" s="6">
-        <v>84578</v>
+        <v>84686</v>
       </c>
       <c r="H60" t="s">
         <v>445</v>
       </c>
       <c r="I60" s="6">
-        <v>84548</v>
+        <v>109</v>
       </c>
       <c r="J60" t="s">
         <v>565</v>
       </c>
       <c r="K60" s="6">
-        <v>260372</v>
+        <v>260589</v>
       </c>
       <c r="L60" t="s">
         <v>685</v>
       </c>
       <c r="M60" s="6">
-        <v>84658</v>
+        <v>84609</v>
       </c>
       <c r="N60" t="s">
         <v>805</v>
       </c>
       <c r="O60" s="6">
-        <v>81494</v>
+        <v>80494</v>
       </c>
       <c r="P60" t="s">
         <v>925</v>
       </c>
       <c r="Q60" s="6">
-        <v>84921</v>
+        <v>84722</v>
       </c>
       <c r="R60" t="s">
         <v>1045</v>
       </c>
       <c r="S60" s="6">
-        <v>85442</v>
+        <v>85370</v>
       </c>
     </row>
     <row r="61" spans="2:19">
@@ -7817,55 +7889,55 @@
         <v>86</v>
       </c>
       <c r="C61" s="6">
-        <v>12852</v>
+        <v>13543</v>
       </c>
       <c r="D61" t="s">
         <v>206</v>
       </c>
       <c r="E61" s="6">
-        <v>9687</v>
+        <v>9705</v>
       </c>
       <c r="F61" t="s">
         <v>326</v>
       </c>
       <c r="G61" s="6">
-        <v>10297</v>
+        <v>10376</v>
       </c>
       <c r="H61" t="s">
         <v>446</v>
       </c>
       <c r="I61" s="6">
-        <v>12852</v>
+        <v>301</v>
       </c>
       <c r="J61" t="s">
         <v>566</v>
       </c>
       <c r="K61" s="6">
-        <v>51188</v>
+        <v>52993</v>
       </c>
       <c r="L61" t="s">
         <v>686</v>
       </c>
       <c r="M61" s="6">
-        <v>10297</v>
+        <v>10376</v>
       </c>
       <c r="N61" t="s">
         <v>806</v>
       </c>
       <c r="O61" s="6">
-        <v>13200</v>
+        <v>13874</v>
       </c>
       <c r="P61" t="s">
         <v>926</v>
       </c>
       <c r="Q61" s="6">
-        <v>10048</v>
+        <v>10118</v>
       </c>
       <c r="R61" t="s">
         <v>1046</v>
       </c>
       <c r="S61" s="6">
-        <v>10332</v>
+        <v>10400</v>
       </c>
     </row>
     <row r="62" spans="2:19">
@@ -7873,55 +7945,55 @@
         <v>87</v>
       </c>
       <c r="C62" s="6">
-        <v>196056</v>
+        <v>196588</v>
       </c>
       <c r="D62" t="s">
         <v>207</v>
       </c>
       <c r="E62" s="6">
-        <v>186570</v>
+        <v>186523</v>
       </c>
       <c r="F62" t="s">
         <v>327</v>
       </c>
       <c r="G62" s="6">
-        <v>182943</v>
+        <v>182989</v>
       </c>
       <c r="H62" t="s">
         <v>447</v>
       </c>
       <c r="I62" s="6">
-        <v>196056</v>
+        <v>106</v>
       </c>
       <c r="J62" t="s">
         <v>567</v>
       </c>
       <c r="K62" s="6">
-        <v>73345</v>
+        <v>73373</v>
       </c>
       <c r="L62" t="s">
         <v>687</v>
       </c>
       <c r="M62" s="6">
-        <v>182943</v>
+        <v>182989</v>
       </c>
       <c r="N62" t="s">
         <v>807</v>
       </c>
       <c r="O62" s="6">
-        <v>60850</v>
+        <v>90831</v>
       </c>
       <c r="P62" t="s">
         <v>927</v>
       </c>
       <c r="Q62" s="6">
-        <v>190981</v>
+        <v>191075</v>
       </c>
       <c r="R62" t="s">
         <v>1047</v>
       </c>
       <c r="S62" s="6">
-        <v>184468</v>
+        <v>184467</v>
       </c>
     </row>
     <row r="63" spans="2:19">
@@ -7929,55 +8001,55 @@
         <v>88</v>
       </c>
       <c r="C63" s="6">
-        <v>27192</v>
+        <v>28181</v>
       </c>
       <c r="D63" t="s">
         <v>208</v>
       </c>
       <c r="E63" s="6">
-        <v>17988</v>
+        <v>17989</v>
       </c>
       <c r="F63" t="s">
         <v>328</v>
       </c>
       <c r="G63" s="6">
-        <v>19567</v>
+        <v>19655</v>
       </c>
       <c r="H63" t="s">
         <v>448</v>
       </c>
       <c r="I63" s="6">
-        <v>27192</v>
+        <v>329</v>
       </c>
       <c r="J63" t="s">
         <v>568</v>
       </c>
       <c r="K63" s="6">
-        <v>54956</v>
+        <v>55393</v>
       </c>
       <c r="L63" t="s">
         <v>688</v>
       </c>
       <c r="M63" s="6">
-        <v>19567</v>
+        <v>19655</v>
       </c>
       <c r="N63" t="s">
         <v>808</v>
       </c>
       <c r="O63" s="6">
-        <v>27470</v>
+        <v>28589</v>
       </c>
       <c r="P63" t="s">
         <v>928</v>
       </c>
       <c r="Q63" s="6">
-        <v>18853</v>
+        <v>18901</v>
       </c>
       <c r="R63" t="s">
         <v>1048</v>
       </c>
       <c r="S63" s="6">
-        <v>19642</v>
+        <v>19703</v>
       </c>
     </row>
     <row r="64" spans="2:19">
@@ -7985,7 +8057,7 @@
         <v>89</v>
       </c>
       <c r="C64" s="6">
-        <v>7472</v>
+        <v>7582</v>
       </c>
       <c r="D64" t="s">
         <v>209</v>
@@ -7997,13 +8069,13 @@
         <v>329</v>
       </c>
       <c r="G64" s="6">
-        <v>5988</v>
+        <v>5997</v>
       </c>
       <c r="H64" t="s">
         <v>449</v>
       </c>
       <c r="I64" s="6">
-        <v>7472</v>
+        <v>263</v>
       </c>
       <c r="J64" t="s">
         <v>569</v>
@@ -8015,13 +8087,13 @@
         <v>689</v>
       </c>
       <c r="M64" s="6">
-        <v>5988</v>
+        <v>5997</v>
       </c>
       <c r="N64" t="s">
         <v>809</v>
       </c>
       <c r="O64" s="6">
-        <v>7767</v>
+        <v>7902</v>
       </c>
       <c r="P64" t="s">
         <v>929</v>
@@ -8033,7 +8105,7 @@
         <v>1049</v>
       </c>
       <c r="S64" s="6">
-        <v>6041</v>
+        <v>6052</v>
       </c>
     </row>
     <row r="65" spans="2:19">
@@ -8041,55 +8113,55 @@
         <v>90</v>
       </c>
       <c r="C65" s="6">
-        <v>26107</v>
+        <v>26020</v>
       </c>
       <c r="D65" t="s">
         <v>210</v>
       </c>
       <c r="E65" s="6">
-        <v>23968</v>
+        <v>24248</v>
       </c>
       <c r="F65" t="s">
         <v>330</v>
       </c>
       <c r="G65" s="6">
-        <v>24662</v>
+        <v>24901</v>
       </c>
       <c r="H65" t="s">
         <v>450</v>
       </c>
       <c r="I65" s="6">
-        <v>26107</v>
+        <v>842</v>
       </c>
       <c r="J65" t="s">
         <v>570</v>
       </c>
       <c r="K65" s="6">
-        <v>83134</v>
+        <v>84008</v>
       </c>
       <c r="L65" t="s">
         <v>690</v>
       </c>
       <c r="M65" s="6">
-        <v>24662</v>
+        <v>24901</v>
       </c>
       <c r="N65" t="s">
         <v>810</v>
       </c>
       <c r="O65" s="6">
-        <v>26040</v>
+        <v>26112</v>
       </c>
       <c r="P65" t="s">
         <v>930</v>
       </c>
       <c r="Q65" s="6">
-        <v>24192</v>
+        <v>24438</v>
       </c>
       <c r="R65" t="s">
         <v>1050</v>
       </c>
       <c r="S65" s="6">
-        <v>24735</v>
+        <v>24989</v>
       </c>
     </row>
     <row r="66" spans="2:19">
@@ -8097,55 +8169,55 @@
         <v>91</v>
       </c>
       <c r="C66" s="6">
-        <v>21015</v>
+        <v>21481</v>
       </c>
       <c r="D66" t="s">
         <v>211</v>
       </c>
       <c r="E66" s="6">
-        <v>17172</v>
+        <v>17371</v>
       </c>
       <c r="F66" t="s">
         <v>331</v>
       </c>
       <c r="G66" s="6">
-        <v>18361</v>
+        <v>18740</v>
       </c>
       <c r="H66" t="s">
         <v>451</v>
       </c>
       <c r="I66" s="6">
-        <v>21015</v>
+        <v>405</v>
       </c>
       <c r="J66" t="s">
         <v>571</v>
       </c>
       <c r="K66" s="6">
-        <v>57840</v>
+        <v>58604</v>
       </c>
       <c r="L66" t="s">
         <v>691</v>
       </c>
       <c r="M66" s="6">
-        <v>18361</v>
+        <v>18740</v>
       </c>
       <c r="N66" t="s">
         <v>811</v>
       </c>
       <c r="O66" s="6">
-        <v>22093</v>
+        <v>22490</v>
       </c>
       <c r="P66" t="s">
         <v>931</v>
       </c>
       <c r="Q66" s="6">
-        <v>17644</v>
+        <v>18111</v>
       </c>
       <c r="R66" t="s">
         <v>1051</v>
       </c>
       <c r="S66" s="6">
-        <v>18456</v>
+        <v>18791</v>
       </c>
     </row>
     <row r="67" spans="2:19">
@@ -8153,55 +8225,55 @@
         <v>92</v>
       </c>
       <c r="C67" s="6">
-        <v>8047</v>
+        <v>8409</v>
       </c>
       <c r="D67" t="s">
         <v>212</v>
       </c>
       <c r="E67" s="6">
-        <v>21073</v>
+        <v>20877</v>
       </c>
       <c r="F67" t="s">
         <v>332</v>
       </c>
       <c r="G67" s="6">
-        <v>21891</v>
+        <v>21857</v>
       </c>
       <c r="H67" t="s">
         <v>452</v>
       </c>
       <c r="I67" s="6">
-        <v>8047</v>
+        <v>109</v>
       </c>
       <c r="J67" t="s">
         <v>572</v>
       </c>
       <c r="K67" s="6">
-        <v>36624</v>
+        <v>38351</v>
       </c>
       <c r="L67" t="s">
         <v>692</v>
       </c>
       <c r="M67" s="6">
-        <v>21891</v>
+        <v>21857</v>
       </c>
       <c r="N67" t="s">
         <v>812</v>
       </c>
       <c r="O67" s="6">
-        <v>5825</v>
+        <v>6362</v>
       </c>
       <c r="P67" t="s">
         <v>932</v>
       </c>
       <c r="Q67" s="6">
-        <v>17366</v>
+        <v>17379</v>
       </c>
       <c r="R67" t="s">
         <v>1052</v>
       </c>
       <c r="S67" s="6">
-        <v>21966</v>
+        <v>21903</v>
       </c>
     </row>
     <row r="68" spans="2:19">
@@ -8209,49 +8281,49 @@
         <v>93</v>
       </c>
       <c r="C68" s="6">
-        <v>3914</v>
+        <v>4120</v>
       </c>
       <c r="D68" t="s">
         <v>213</v>
       </c>
       <c r="E68" s="6">
-        <v>13606</v>
+        <v>13639</v>
       </c>
       <c r="F68" t="s">
         <v>333</v>
       </c>
       <c r="G68" s="6">
-        <v>13793</v>
+        <v>13791</v>
       </c>
       <c r="H68" t="s">
         <v>453</v>
       </c>
       <c r="I68" s="6">
-        <v>3914</v>
+        <v>104</v>
       </c>
       <c r="J68" t="s">
         <v>573</v>
       </c>
       <c r="K68" s="6">
-        <v>2887</v>
+        <v>3010</v>
       </c>
       <c r="L68" t="s">
         <v>693</v>
       </c>
       <c r="M68" s="6">
-        <v>13793</v>
+        <v>13791</v>
       </c>
       <c r="N68" t="s">
         <v>813</v>
       </c>
       <c r="O68" s="6">
-        <v>1466</v>
+        <v>1531</v>
       </c>
       <c r="P68" t="s">
         <v>933</v>
       </c>
       <c r="Q68" s="6">
-        <v>10105</v>
+        <v>10247</v>
       </c>
       <c r="R68" t="s">
         <v>1053</v>
@@ -8265,55 +8337,55 @@
         <v>94</v>
       </c>
       <c r="C69" s="6">
-        <v>16876</v>
+        <v>15198</v>
       </c>
       <c r="D69" t="s">
         <v>214</v>
       </c>
       <c r="E69" s="6">
-        <v>34941</v>
+        <v>34863</v>
       </c>
       <c r="F69" t="s">
         <v>334</v>
       </c>
       <c r="G69" s="6">
-        <v>36221</v>
+        <v>36188</v>
       </c>
       <c r="H69" t="s">
         <v>454</v>
       </c>
       <c r="I69" s="6">
-        <v>16876</v>
+        <v>102</v>
       </c>
       <c r="J69" t="s">
         <v>574</v>
       </c>
       <c r="K69" s="6">
-        <v>51556</v>
+        <v>52113</v>
       </c>
       <c r="L69" t="s">
         <v>694</v>
       </c>
       <c r="M69" s="6">
-        <v>36221</v>
+        <v>36188</v>
       </c>
       <c r="N69" t="s">
         <v>814</v>
       </c>
       <c r="O69" s="6">
-        <v>12015</v>
+        <v>11595</v>
       </c>
       <c r="P69" t="s">
         <v>934</v>
       </c>
       <c r="Q69" s="6">
-        <v>29833</v>
+        <v>28938</v>
       </c>
       <c r="R69" t="s">
         <v>1054</v>
       </c>
       <c r="S69" s="6">
-        <v>36462</v>
+        <v>36407</v>
       </c>
     </row>
     <row r="70" spans="2:19">
@@ -8321,55 +8393,55 @@
         <v>95</v>
       </c>
       <c r="C70" s="6">
-        <v>36168</v>
+        <v>37815</v>
       </c>
       <c r="D70" t="s">
         <v>215</v>
       </c>
       <c r="E70" s="6">
-        <v>96925</v>
+        <v>97299</v>
       </c>
       <c r="F70" t="s">
         <v>335</v>
       </c>
       <c r="G70" s="6">
-        <v>101490</v>
+        <v>101435</v>
       </c>
       <c r="H70" t="s">
         <v>455</v>
       </c>
       <c r="I70" s="6">
-        <v>36168</v>
+        <v>108</v>
       </c>
       <c r="J70" t="s">
         <v>575</v>
       </c>
       <c r="K70" s="6">
-        <v>48379</v>
+        <v>50106</v>
       </c>
       <c r="L70" t="s">
         <v>695</v>
       </c>
       <c r="M70" s="6">
-        <v>101490</v>
+        <v>101435</v>
       </c>
       <c r="N70" t="s">
         <v>815</v>
       </c>
       <c r="O70" s="6">
-        <v>27291</v>
+        <v>29205</v>
       </c>
       <c r="P70" t="s">
         <v>935</v>
       </c>
       <c r="Q70" s="6">
-        <v>74886</v>
+        <v>75266</v>
       </c>
       <c r="R70" t="s">
         <v>1055</v>
       </c>
       <c r="S70" s="6">
-        <v>103763</v>
+        <v>103716</v>
       </c>
     </row>
     <row r="71" spans="2:19">
@@ -8377,55 +8449,55 @@
         <v>96</v>
       </c>
       <c r="C71" s="6">
-        <v>29685</v>
+        <v>30419</v>
       </c>
       <c r="D71" t="s">
         <v>216</v>
       </c>
       <c r="E71" s="6">
-        <v>25618</v>
+        <v>25675</v>
       </c>
       <c r="F71" t="s">
         <v>336</v>
       </c>
       <c r="G71" s="6">
-        <v>27128</v>
+        <v>27349</v>
       </c>
       <c r="H71" t="s">
         <v>456</v>
       </c>
       <c r="I71" s="6">
-        <v>29685</v>
+        <v>353</v>
       </c>
       <c r="J71" t="s">
         <v>576</v>
       </c>
       <c r="K71" s="6">
-        <v>37072</v>
+        <v>37106</v>
       </c>
       <c r="L71" t="s">
         <v>696</v>
       </c>
       <c r="M71" s="6">
-        <v>27128</v>
+        <v>27349</v>
       </c>
       <c r="N71" t="s">
         <v>816</v>
       </c>
       <c r="O71" s="6">
-        <v>30253</v>
+        <v>31095</v>
       </c>
       <c r="P71" t="s">
         <v>936</v>
       </c>
       <c r="Q71" s="6">
-        <v>26430</v>
+        <v>26723</v>
       </c>
       <c r="R71" t="s">
         <v>1056</v>
       </c>
       <c r="S71" s="6">
-        <v>27036</v>
+        <v>27270</v>
       </c>
     </row>
     <row r="72" spans="2:19">
@@ -8433,55 +8505,55 @@
         <v>97</v>
       </c>
       <c r="C72" s="6">
-        <v>124405</v>
+        <v>123863</v>
       </c>
       <c r="D72" t="s">
         <v>217</v>
       </c>
       <c r="E72" s="6">
-        <v>151047</v>
+        <v>151112</v>
       </c>
       <c r="F72" t="s">
         <v>337</v>
       </c>
       <c r="G72" s="6">
-        <v>169152</v>
+        <v>169095</v>
       </c>
       <c r="H72" t="s">
         <v>457</v>
       </c>
       <c r="I72" s="6">
-        <v>124405</v>
+        <v>109</v>
       </c>
       <c r="J72" t="s">
         <v>577</v>
       </c>
       <c r="K72" s="6">
-        <v>142534</v>
+        <v>143632</v>
       </c>
       <c r="L72" t="s">
         <v>697</v>
       </c>
       <c r="M72" s="6">
-        <v>169152</v>
+        <v>169095</v>
       </c>
       <c r="N72" t="s">
         <v>817</v>
       </c>
       <c r="O72" s="6">
-        <v>99059</v>
+        <v>100661</v>
       </c>
       <c r="P72" t="s">
         <v>937</v>
       </c>
       <c r="Q72" s="6">
-        <v>128213</v>
+        <v>128276</v>
       </c>
       <c r="R72" t="s">
         <v>1057</v>
       </c>
       <c r="S72" s="6">
-        <v>169152</v>
+        <v>169095</v>
       </c>
     </row>
     <row r="73" spans="2:19">
@@ -8489,7 +8561,7 @@
         <v>98</v>
       </c>
       <c r="C73" s="6">
-        <v>14294</v>
+        <v>14301</v>
       </c>
       <c r="D73" t="s">
         <v>218</v>
@@ -8507,7 +8579,7 @@
         <v>458</v>
       </c>
       <c r="I73" s="6">
-        <v>14298</v>
+        <v>108</v>
       </c>
       <c r="J73" t="s">
         <v>578</v>
@@ -8545,55 +8617,55 @@
         <v>99</v>
       </c>
       <c r="C74" s="6">
-        <v>36384</v>
+        <v>37757</v>
       </c>
       <c r="D74" t="s">
         <v>219</v>
       </c>
       <c r="E74" s="6">
-        <v>29837</v>
+        <v>30087</v>
       </c>
       <c r="F74" t="s">
         <v>339</v>
       </c>
       <c r="G74" s="6">
-        <v>28826</v>
+        <v>28935</v>
       </c>
       <c r="H74" t="s">
         <v>459</v>
       </c>
       <c r="I74" s="6">
-        <v>36384</v>
+        <v>377</v>
       </c>
       <c r="J74" t="s">
         <v>579</v>
       </c>
       <c r="K74" s="6">
-        <v>46537</v>
+        <v>46657</v>
       </c>
       <c r="L74" t="s">
         <v>699</v>
       </c>
       <c r="M74" s="6">
-        <v>28826</v>
+        <v>28935</v>
       </c>
       <c r="N74" t="s">
         <v>819</v>
       </c>
       <c r="O74" s="6">
-        <v>36610</v>
+        <v>38015</v>
       </c>
       <c r="P74" t="s">
         <v>939</v>
       </c>
       <c r="Q74" s="6">
-        <v>31640</v>
+        <v>32390</v>
       </c>
       <c r="R74" t="s">
         <v>1059</v>
       </c>
       <c r="S74" s="6">
-        <v>28821</v>
+        <v>28927</v>
       </c>
     </row>
     <row r="75" spans="2:19">
@@ -8601,55 +8673,55 @@
         <v>100</v>
       </c>
       <c r="C75" s="6">
-        <v>30442</v>
+        <v>26542</v>
       </c>
       <c r="D75" t="s">
         <v>220</v>
       </c>
       <c r="E75" s="6">
-        <v>47436</v>
+        <v>47470</v>
       </c>
       <c r="F75" t="s">
         <v>340</v>
       </c>
       <c r="G75" s="6">
-        <v>49054</v>
+        <v>49035</v>
       </c>
       <c r="H75" t="s">
         <v>460</v>
       </c>
       <c r="I75" s="6">
-        <v>30442</v>
+        <v>110</v>
       </c>
       <c r="J75" t="s">
         <v>580</v>
       </c>
       <c r="K75" s="6">
-        <v>103479</v>
+        <v>101218</v>
       </c>
       <c r="L75" t="s">
         <v>700</v>
       </c>
       <c r="M75" s="6">
-        <v>49054</v>
+        <v>49035</v>
       </c>
       <c r="N75" t="s">
         <v>820</v>
       </c>
       <c r="O75" s="6">
-        <v>25683</v>
+        <v>22839</v>
       </c>
       <c r="P75" t="s">
         <v>940</v>
       </c>
       <c r="Q75" s="6">
-        <v>45555</v>
+        <v>45709</v>
       </c>
       <c r="R75" t="s">
         <v>1060</v>
       </c>
       <c r="S75" s="6">
-        <v>49211</v>
+        <v>49239</v>
       </c>
     </row>
     <row r="76" spans="2:19">
@@ -8657,55 +8729,55 @@
         <v>101</v>
       </c>
       <c r="C76" s="6">
-        <v>15734</v>
+        <v>14741</v>
       </c>
       <c r="D76" t="s">
         <v>221</v>
       </c>
       <c r="E76" s="6">
-        <v>27246</v>
+        <v>27222</v>
       </c>
       <c r="F76" t="s">
         <v>341</v>
       </c>
       <c r="G76" s="6">
-        <v>28700</v>
+        <v>28697</v>
       </c>
       <c r="H76" t="s">
         <v>461</v>
       </c>
       <c r="I76" s="6">
-        <v>15734</v>
+        <v>106</v>
       </c>
       <c r="J76" t="s">
         <v>581</v>
       </c>
       <c r="K76" s="6">
-        <v>71341</v>
+        <v>71257</v>
       </c>
       <c r="L76" t="s">
         <v>701</v>
       </c>
       <c r="M76" s="6">
-        <v>28700</v>
+        <v>28697</v>
       </c>
       <c r="N76" t="s">
         <v>821</v>
       </c>
       <c r="O76" s="6">
-        <v>14117</v>
+        <v>13556</v>
       </c>
       <c r="P76" t="s">
         <v>941</v>
       </c>
       <c r="Q76" s="6">
-        <v>25332</v>
+        <v>25310</v>
       </c>
       <c r="R76" t="s">
         <v>1061</v>
       </c>
       <c r="S76" s="6">
-        <v>28981</v>
+        <v>28990</v>
       </c>
     </row>
     <row r="77" spans="2:19">
@@ -8713,55 +8785,55 @@
         <v>102</v>
       </c>
       <c r="C77" s="6">
-        <v>23034</v>
+        <v>19755</v>
       </c>
       <c r="D77" t="s">
         <v>222</v>
       </c>
       <c r="E77" s="6">
-        <v>46476</v>
+        <v>45456</v>
       </c>
       <c r="F77" t="s">
         <v>342</v>
       </c>
       <c r="G77" s="6">
-        <v>52001</v>
+        <v>51925</v>
       </c>
       <c r="H77" t="s">
         <v>462</v>
       </c>
       <c r="I77" s="6">
-        <v>23034</v>
+        <v>120</v>
       </c>
       <c r="J77" t="s">
         <v>582</v>
       </c>
       <c r="K77" s="6">
-        <v>33246</v>
+        <v>33218</v>
       </c>
       <c r="L77" t="s">
         <v>702</v>
       </c>
       <c r="M77" s="6">
-        <v>52001</v>
+        <v>51925</v>
       </c>
       <c r="N77" t="s">
         <v>822</v>
       </c>
       <c r="O77" s="6">
-        <v>11777</v>
+        <v>11150</v>
       </c>
       <c r="P77" t="s">
         <v>942</v>
       </c>
       <c r="Q77" s="6">
-        <v>44867</v>
+        <v>43994</v>
       </c>
       <c r="R77" t="s">
         <v>1062</v>
       </c>
       <c r="S77" s="6">
-        <v>52197</v>
+        <v>52145</v>
       </c>
     </row>
     <row r="78" spans="2:19">
@@ -8769,55 +8841,55 @@
         <v>103</v>
       </c>
       <c r="C78" s="6">
-        <v>55425</v>
+        <v>55081</v>
       </c>
       <c r="D78" t="s">
         <v>223</v>
       </c>
       <c r="E78" s="6">
-        <v>115137</v>
+        <v>114794</v>
       </c>
       <c r="F78" t="s">
         <v>343</v>
       </c>
       <c r="G78" s="6">
-        <v>124020</v>
+        <v>123964</v>
       </c>
       <c r="H78" t="s">
         <v>463</v>
       </c>
       <c r="I78" s="6">
-        <v>55425</v>
+        <v>101</v>
       </c>
       <c r="J78" t="s">
         <v>583</v>
       </c>
       <c r="K78" s="6">
-        <v>97695</v>
+        <v>120384</v>
       </c>
       <c r="L78" t="s">
         <v>703</v>
       </c>
       <c r="M78" s="6">
-        <v>124020</v>
+        <v>123964</v>
       </c>
       <c r="N78" t="s">
         <v>823</v>
       </c>
       <c r="O78" s="6">
-        <v>40614</v>
+        <v>40724</v>
       </c>
       <c r="P78" t="s">
         <v>943</v>
       </c>
       <c r="Q78" s="6">
-        <v>103321</v>
+        <v>103353</v>
       </c>
       <c r="R78" t="s">
         <v>1063</v>
       </c>
       <c r="S78" s="6">
-        <v>48114</v>
+        <v>48117</v>
       </c>
     </row>
     <row r="79" spans="2:19">
@@ -8825,55 +8897,55 @@
         <v>104</v>
       </c>
       <c r="C79" s="6">
-        <v>21647</v>
+        <v>21933</v>
       </c>
       <c r="D79" t="s">
         <v>224</v>
       </c>
       <c r="E79" s="6">
-        <v>17189</v>
+        <v>17198</v>
       </c>
       <c r="F79" t="s">
         <v>344</v>
       </c>
       <c r="G79" s="6">
-        <v>18508</v>
+        <v>18526</v>
       </c>
       <c r="H79" t="s">
         <v>464</v>
       </c>
       <c r="I79" s="6">
-        <v>21647</v>
+        <v>358</v>
       </c>
       <c r="J79" t="s">
         <v>584</v>
       </c>
       <c r="K79" s="6">
-        <v>41027</v>
+        <v>41091</v>
       </c>
       <c r="L79" t="s">
         <v>704</v>
       </c>
       <c r="M79" s="6">
-        <v>18508</v>
+        <v>18526</v>
       </c>
       <c r="N79" t="s">
         <v>824</v>
       </c>
       <c r="O79" s="6">
-        <v>22751</v>
+        <v>23155</v>
       </c>
       <c r="P79" t="s">
         <v>944</v>
       </c>
       <c r="Q79" s="6">
-        <v>18008</v>
+        <v>18016</v>
       </c>
       <c r="R79" t="s">
         <v>1064</v>
       </c>
       <c r="S79" s="6">
-        <v>18580</v>
+        <v>18533</v>
       </c>
     </row>
     <row r="80" spans="2:19">
@@ -8881,55 +8953,55 @@
         <v>105</v>
       </c>
       <c r="C80" s="6">
-        <v>27167</v>
+        <v>27651</v>
       </c>
       <c r="D80" t="s">
         <v>225</v>
       </c>
       <c r="E80" s="6">
-        <v>22779</v>
+        <v>22795</v>
       </c>
       <c r="F80" t="s">
         <v>345</v>
       </c>
       <c r="G80" s="6">
-        <v>24235</v>
+        <v>24289</v>
       </c>
       <c r="H80" t="s">
         <v>465</v>
       </c>
       <c r="I80" s="6">
-        <v>27167</v>
+        <v>291</v>
       </c>
       <c r="J80" t="s">
         <v>585</v>
       </c>
       <c r="K80" s="6">
-        <v>31240</v>
+        <v>31252</v>
       </c>
       <c r="L80" t="s">
         <v>705</v>
       </c>
       <c r="M80" s="6">
-        <v>24235</v>
+        <v>24289</v>
       </c>
       <c r="N80" t="s">
         <v>825</v>
       </c>
       <c r="O80" s="6">
-        <v>27937</v>
+        <v>28595</v>
       </c>
       <c r="P80" t="s">
         <v>945</v>
       </c>
       <c r="Q80" s="6">
-        <v>23611</v>
+        <v>23638</v>
       </c>
       <c r="R80" t="s">
         <v>1065</v>
       </c>
       <c r="S80" s="6">
-        <v>24208</v>
+        <v>24242</v>
       </c>
     </row>
     <row r="81" spans="2:19">
@@ -8937,43 +9009,43 @@
         <v>106</v>
       </c>
       <c r="C81" s="6">
-        <v>28148</v>
+        <v>28165</v>
       </c>
       <c r="D81" t="s">
         <v>226</v>
       </c>
       <c r="E81" s="6">
-        <v>26807</v>
+        <v>26806</v>
       </c>
       <c r="F81" t="s">
         <v>346</v>
       </c>
       <c r="G81" s="6">
-        <v>28050</v>
+        <v>28065</v>
       </c>
       <c r="H81" t="s">
         <v>466</v>
       </c>
       <c r="I81" s="6">
-        <v>28148</v>
+        <v>424</v>
       </c>
       <c r="J81" t="s">
         <v>586</v>
       </c>
       <c r="K81" s="6">
-        <v>36202</v>
+        <v>36206</v>
       </c>
       <c r="L81" t="s">
         <v>706</v>
       </c>
       <c r="M81" s="6">
-        <v>28050</v>
+        <v>28065</v>
       </c>
       <c r="N81" t="s">
         <v>826</v>
       </c>
       <c r="O81" s="6">
-        <v>29508</v>
+        <v>29560</v>
       </c>
       <c r="P81" t="s">
         <v>946</v>
@@ -8985,7 +9057,7 @@
         <v>1066</v>
       </c>
       <c r="S81" s="6">
-        <v>28050</v>
+        <v>28065</v>
       </c>
     </row>
     <row r="82" spans="2:19">
@@ -9011,7 +9083,7 @@
         <v>467</v>
       </c>
       <c r="I82" s="6">
-        <v>4060</v>
+        <v>291</v>
       </c>
       <c r="J82" t="s">
         <v>587</v>
@@ -9061,13 +9133,13 @@
         <v>348</v>
       </c>
       <c r="G83" s="6">
-        <v>47634</v>
+        <v>47632</v>
       </c>
       <c r="H83" t="s">
         <v>468</v>
       </c>
       <c r="I83" s="6">
-        <v>49142</v>
+        <v>791</v>
       </c>
       <c r="J83" t="s">
         <v>588</v>
@@ -9079,25 +9151,25 @@
         <v>708</v>
       </c>
       <c r="M83" s="6">
-        <v>47634</v>
+        <v>47632</v>
       </c>
       <c r="N83" t="s">
         <v>828</v>
       </c>
       <c r="O83" s="6">
-        <v>49755</v>
+        <v>49754</v>
       </c>
       <c r="P83" t="s">
         <v>948</v>
       </c>
       <c r="Q83" s="6">
-        <v>46173</v>
+        <v>46175</v>
       </c>
       <c r="R83" t="s">
         <v>1068</v>
       </c>
       <c r="S83" s="6">
-        <v>47602</v>
+        <v>47598</v>
       </c>
     </row>
     <row r="84" spans="2:19">
@@ -9105,7 +9177,7 @@
         <v>109</v>
       </c>
       <c r="C84" s="6">
-        <v>76154</v>
+        <v>76158</v>
       </c>
       <c r="D84" t="s">
         <v>229</v>
@@ -9123,7 +9195,7 @@
         <v>469</v>
       </c>
       <c r="I84" s="6">
-        <v>76154</v>
+        <v>1138</v>
       </c>
       <c r="J84" t="s">
         <v>589</v>
@@ -9141,7 +9213,7 @@
         <v>829</v>
       </c>
       <c r="O84" s="6">
-        <v>77545</v>
+        <v>77539</v>
       </c>
       <c r="P84" t="s">
         <v>949</v>
@@ -9161,25 +9233,25 @@
         <v>110</v>
       </c>
       <c r="C85" s="6">
-        <v>86562</v>
+        <v>86642</v>
       </c>
       <c r="D85" t="s">
         <v>230</v>
       </c>
       <c r="E85" s="6">
-        <v>77894</v>
+        <v>77903</v>
       </c>
       <c r="F85" t="s">
         <v>350</v>
       </c>
       <c r="G85" s="6">
-        <v>80717</v>
+        <v>80737</v>
       </c>
       <c r="H85" t="s">
         <v>470</v>
       </c>
       <c r="I85" s="6">
-        <v>86562</v>
+        <v>1035</v>
       </c>
       <c r="J85" t="s">
         <v>590</v>
@@ -9191,25 +9263,25 @@
         <v>710</v>
       </c>
       <c r="M85" s="6">
-        <v>80717</v>
+        <v>80737</v>
       </c>
       <c r="N85" t="s">
         <v>830</v>
       </c>
       <c r="O85" s="6">
-        <v>89836</v>
+        <v>89902</v>
       </c>
       <c r="P85" t="s">
         <v>950</v>
       </c>
       <c r="Q85" s="6">
-        <v>77642</v>
+        <v>77655</v>
       </c>
       <c r="R85" t="s">
         <v>1070</v>
       </c>
       <c r="S85" s="6">
-        <v>80864</v>
+        <v>80863</v>
       </c>
     </row>
     <row r="86" spans="2:19">
@@ -9235,7 +9307,7 @@
         <v>471</v>
       </c>
       <c r="I86" s="6">
-        <v>102255</v>
+        <v>1119</v>
       </c>
       <c r="J86" t="s">
         <v>591</v>
@@ -9273,7 +9345,7 @@
         <v>112</v>
       </c>
       <c r="C87" s="6">
-        <v>56102</v>
+        <v>56119</v>
       </c>
       <c r="D87" t="s">
         <v>232</v>
@@ -9291,7 +9363,7 @@
         <v>472</v>
       </c>
       <c r="I87" s="6">
-        <v>56102</v>
+        <v>904</v>
       </c>
       <c r="J87" t="s">
         <v>592</v>
@@ -9309,7 +9381,7 @@
         <v>832</v>
       </c>
       <c r="O87" s="6">
-        <v>58111</v>
+        <v>58178</v>
       </c>
       <c r="P87" t="s">
         <v>952</v>
@@ -9347,7 +9419,7 @@
         <v>473</v>
       </c>
       <c r="I88" s="6">
-        <v>218158</v>
+        <v>153</v>
       </c>
       <c r="J88" t="s">
         <v>593</v>
@@ -9385,55 +9457,55 @@
         <v>114</v>
       </c>
       <c r="C89" s="6">
-        <v>904669</v>
+        <v>903415</v>
       </c>
       <c r="D89" t="s">
         <v>234</v>
       </c>
       <c r="E89" s="6">
-        <v>839433</v>
+        <v>839589</v>
       </c>
       <c r="F89" t="s">
         <v>354</v>
       </c>
       <c r="G89" s="6">
-        <v>823979</v>
+        <v>824004</v>
       </c>
       <c r="H89" t="s">
         <v>474</v>
       </c>
       <c r="I89" s="6">
-        <v>904669</v>
+        <v>148</v>
       </c>
       <c r="J89" t="s">
         <v>594</v>
       </c>
       <c r="K89" s="6">
-        <v>1043226</v>
+        <v>1043616</v>
       </c>
       <c r="L89" t="s">
         <v>714</v>
       </c>
       <c r="M89" s="6">
-        <v>823979</v>
+        <v>824004</v>
       </c>
       <c r="N89" t="s">
         <v>834</v>
       </c>
       <c r="O89" s="6">
-        <v>947790</v>
+        <v>948070</v>
       </c>
       <c r="P89" t="s">
         <v>954</v>
       </c>
       <c r="Q89" s="6">
-        <v>851456</v>
+        <v>850600</v>
       </c>
       <c r="R89" t="s">
         <v>1074</v>
       </c>
       <c r="S89" s="6">
-        <v>823979</v>
+        <v>824004</v>
       </c>
     </row>
     <row r="90" spans="2:19">
@@ -9441,55 +9513,55 @@
         <v>115</v>
       </c>
       <c r="C90" s="6">
-        <v>244202</v>
+        <v>241229</v>
       </c>
       <c r="D90" t="s">
         <v>235</v>
       </c>
       <c r="E90" s="6">
-        <v>239527</v>
+        <v>238633</v>
       </c>
       <c r="F90" t="s">
         <v>355</v>
       </c>
       <c r="G90" s="6">
-        <v>262017</v>
+        <v>260996</v>
       </c>
       <c r="H90" t="s">
         <v>475</v>
       </c>
       <c r="I90" s="6">
-        <v>244202</v>
+        <v>137</v>
       </c>
       <c r="J90" t="s">
         <v>595</v>
       </c>
       <c r="K90" s="6">
-        <v>150970</v>
+        <v>149136</v>
       </c>
       <c r="L90" t="s">
         <v>715</v>
       </c>
       <c r="M90" s="6">
-        <v>262017</v>
+        <v>260996</v>
       </c>
       <c r="N90" t="s">
         <v>835</v>
       </c>
       <c r="O90" s="6">
-        <v>178615</v>
+        <v>173088</v>
       </c>
       <c r="P90" t="s">
         <v>955</v>
       </c>
       <c r="Q90" s="6">
-        <v>262743</v>
+        <v>262590</v>
       </c>
       <c r="R90" t="s">
         <v>1075</v>
       </c>
       <c r="S90" s="6">
-        <v>262017</v>
+        <v>260996</v>
       </c>
     </row>
     <row r="91" spans="2:19">
@@ -9497,55 +9569,55 @@
         <v>116</v>
       </c>
       <c r="C91" s="6">
-        <v>150235</v>
+        <v>150010</v>
       </c>
       <c r="D91" t="s">
         <v>236</v>
       </c>
       <c r="E91" s="6">
-        <v>156341</v>
+        <v>156224</v>
       </c>
       <c r="F91" t="s">
         <v>356</v>
       </c>
       <c r="G91" s="6">
-        <v>156434</v>
+        <v>156360</v>
       </c>
       <c r="H91" t="s">
         <v>476</v>
       </c>
       <c r="I91" s="6">
-        <v>150235</v>
+        <v>135</v>
       </c>
       <c r="J91" t="s">
         <v>596</v>
       </c>
       <c r="K91" s="6">
-        <v>113564</v>
+        <v>113648</v>
       </c>
       <c r="L91" t="s">
         <v>716</v>
       </c>
       <c r="M91" s="6">
-        <v>156434</v>
+        <v>156360</v>
       </c>
       <c r="N91" t="s">
         <v>836</v>
       </c>
       <c r="O91" s="6">
-        <v>131256</v>
+        <v>131202</v>
       </c>
       <c r="P91" t="s">
         <v>956</v>
       </c>
       <c r="Q91" s="6">
-        <v>155075</v>
+        <v>155041</v>
       </c>
       <c r="R91" t="s">
         <v>1076</v>
       </c>
       <c r="S91" s="6">
-        <v>156434</v>
+        <v>156360</v>
       </c>
     </row>
     <row r="92" spans="2:19">
@@ -9553,7 +9625,7 @@
         <v>117</v>
       </c>
       <c r="C92" s="6">
-        <v>87533</v>
+        <v>87532</v>
       </c>
       <c r="D92" t="s">
         <v>237</v>
@@ -9565,13 +9637,13 @@
         <v>357</v>
       </c>
       <c r="G92" s="6">
-        <v>84432</v>
+        <v>84444</v>
       </c>
       <c r="H92" t="s">
         <v>477</v>
       </c>
       <c r="I92" s="6">
-        <v>87533</v>
+        <v>1054</v>
       </c>
       <c r="J92" t="s">
         <v>597</v>
@@ -9583,25 +9655,25 @@
         <v>717</v>
       </c>
       <c r="M92" s="6">
-        <v>84432</v>
+        <v>84444</v>
       </c>
       <c r="N92" t="s">
         <v>837</v>
       </c>
       <c r="O92" s="6">
-        <v>88698</v>
+        <v>88728</v>
       </c>
       <c r="P92" t="s">
         <v>957</v>
       </c>
       <c r="Q92" s="6">
-        <v>81784</v>
+        <v>81790</v>
       </c>
       <c r="R92" t="s">
         <v>1077</v>
       </c>
       <c r="S92" s="6">
-        <v>84364</v>
+        <v>84393</v>
       </c>
     </row>
     <row r="93" spans="2:19">
@@ -9609,7 +9681,7 @@
         <v>118</v>
       </c>
       <c r="C93" s="6">
-        <v>114432</v>
+        <v>114531</v>
       </c>
       <c r="D93" t="s">
         <v>238</v>
@@ -9621,13 +9693,13 @@
         <v>358</v>
       </c>
       <c r="G93" s="6">
-        <v>109339</v>
+        <v>109378</v>
       </c>
       <c r="H93" t="s">
         <v>478</v>
       </c>
       <c r="I93" s="6">
-        <v>114432</v>
+        <v>1232</v>
       </c>
       <c r="J93" t="s">
         <v>598</v>
@@ -9639,13 +9711,13 @@
         <v>718</v>
       </c>
       <c r="M93" s="6">
-        <v>109339</v>
+        <v>109378</v>
       </c>
       <c r="N93" t="s">
         <v>838</v>
       </c>
       <c r="O93" s="6">
-        <v>117010</v>
+        <v>117074</v>
       </c>
       <c r="P93" t="s">
         <v>958</v>
@@ -9657,7 +9729,7 @@
         <v>1078</v>
       </c>
       <c r="S93" s="6">
-        <v>108832</v>
+        <v>108826</v>
       </c>
     </row>
     <row r="94" spans="2:19">
@@ -9665,7 +9737,7 @@
         <v>119</v>
       </c>
       <c r="C94" s="6">
-        <v>48133</v>
+        <v>48155</v>
       </c>
       <c r="D94" t="s">
         <v>239</v>
@@ -9683,13 +9755,13 @@
         <v>479</v>
       </c>
       <c r="I94" s="6">
-        <v>48133</v>
+        <v>651</v>
       </c>
       <c r="J94" t="s">
         <v>599</v>
       </c>
       <c r="K94" s="6">
-        <v>57052</v>
+        <v>57055</v>
       </c>
       <c r="L94" t="s">
         <v>719</v>
@@ -9701,7 +9773,7 @@
         <v>839</v>
       </c>
       <c r="O94" s="6">
-        <v>49781</v>
+        <v>49792</v>
       </c>
       <c r="P94" t="s">
         <v>959</v>
@@ -9721,25 +9793,25 @@
         <v>120</v>
       </c>
       <c r="C95" s="6">
-        <v>64262</v>
+        <v>64814</v>
       </c>
       <c r="D95" t="s">
         <v>240</v>
       </c>
       <c r="E95" s="6">
-        <v>47710</v>
+        <v>47754</v>
       </c>
       <c r="F95" t="s">
         <v>360</v>
       </c>
       <c r="G95" s="6">
-        <v>51644</v>
+        <v>51816</v>
       </c>
       <c r="H95" t="s">
         <v>480</v>
       </c>
       <c r="I95" s="6">
-        <v>64262</v>
+        <v>726</v>
       </c>
       <c r="J95" t="s">
         <v>600</v>
@@ -9751,25 +9823,25 @@
         <v>720</v>
       </c>
       <c r="M95" s="6">
-        <v>51644</v>
+        <v>51816</v>
       </c>
       <c r="N95" t="s">
         <v>840</v>
       </c>
       <c r="O95" s="6">
-        <v>65673</v>
+        <v>66288</v>
       </c>
       <c r="P95" t="s">
         <v>960</v>
       </c>
       <c r="Q95" s="6">
-        <v>50121</v>
+        <v>50254</v>
       </c>
       <c r="R95" t="s">
         <v>1080</v>
       </c>
       <c r="S95" s="6">
-        <v>51629</v>
+        <v>51779</v>
       </c>
     </row>
     <row r="96" spans="2:19">
@@ -9777,13 +9849,13 @@
         <v>121</v>
       </c>
       <c r="C96" s="6">
-        <v>63605</v>
+        <v>63782</v>
       </c>
       <c r="D96" t="s">
         <v>241</v>
       </c>
       <c r="E96" s="6">
-        <v>54091</v>
+        <v>54174</v>
       </c>
       <c r="F96" t="s">
         <v>361</v>
@@ -9795,7 +9867,7 @@
         <v>481</v>
       </c>
       <c r="I96" s="6">
-        <v>63605</v>
+        <v>735</v>
       </c>
       <c r="J96" t="s">
         <v>601</v>
@@ -9813,13 +9885,13 @@
         <v>841</v>
       </c>
       <c r="O96" s="6">
-        <v>64402</v>
+        <v>64591</v>
       </c>
       <c r="P96" t="s">
         <v>961</v>
       </c>
       <c r="Q96" s="6">
-        <v>55238</v>
+        <v>55173</v>
       </c>
       <c r="R96" t="s">
         <v>1081</v>
@@ -9833,7 +9905,7 @@
         <v>122</v>
       </c>
       <c r="C97" s="6">
-        <v>59050</v>
+        <v>59055</v>
       </c>
       <c r="D97" t="s">
         <v>242</v>
@@ -9851,13 +9923,13 @@
         <v>482</v>
       </c>
       <c r="I97" s="6">
-        <v>59050</v>
+        <v>698</v>
       </c>
       <c r="J97" t="s">
         <v>602</v>
       </c>
       <c r="K97" s="6">
-        <v>48530</v>
+        <v>48535</v>
       </c>
       <c r="L97" t="s">
         <v>722</v>
@@ -9869,7 +9941,7 @@
         <v>842</v>
       </c>
       <c r="O97" s="6">
-        <v>59469</v>
+        <v>59487</v>
       </c>
       <c r="P97" t="s">
         <v>962</v>
@@ -9889,55 +9961,55 @@
         <v>123</v>
       </c>
       <c r="C98" s="6">
-        <v>1048088</v>
+        <v>1051075</v>
       </c>
       <c r="D98" t="s">
         <v>243</v>
       </c>
       <c r="E98" s="6">
-        <v>985889</v>
+        <v>987077</v>
       </c>
       <c r="F98" t="s">
         <v>363</v>
       </c>
       <c r="G98" s="6">
-        <v>959243</v>
+        <v>959648</v>
       </c>
       <c r="H98" t="s">
         <v>483</v>
       </c>
       <c r="I98" s="6">
-        <v>1048088</v>
+        <v>150</v>
       </c>
       <c r="J98" t="s">
         <v>603</v>
       </c>
       <c r="K98" s="6">
-        <v>1119391</v>
+        <v>1131588</v>
       </c>
       <c r="L98" t="s">
         <v>723</v>
       </c>
       <c r="M98" s="6">
-        <v>959243</v>
+        <v>959648</v>
       </c>
       <c r="N98" t="s">
         <v>843</v>
       </c>
       <c r="O98" s="6">
-        <v>1022471</v>
+        <v>1001347</v>
       </c>
       <c r="P98" t="s">
         <v>963</v>
       </c>
       <c r="Q98" s="6">
-        <v>1008440</v>
+        <v>1010890</v>
       </c>
       <c r="R98" t="s">
         <v>1083</v>
       </c>
       <c r="S98" s="6">
-        <v>959243</v>
+        <v>959648</v>
       </c>
     </row>
     <row r="99" spans="2:19">
@@ -9945,55 +10017,55 @@
         <v>124</v>
       </c>
       <c r="C99" s="6">
-        <v>157544</v>
+        <v>157193</v>
       </c>
       <c r="D99" t="s">
         <v>244</v>
       </c>
       <c r="E99" s="6">
-        <v>116663</v>
+        <v>116675</v>
       </c>
       <c r="F99" t="s">
         <v>364</v>
       </c>
       <c r="G99" s="6">
-        <v>114340</v>
+        <v>114515</v>
       </c>
       <c r="H99" t="s">
         <v>484</v>
       </c>
       <c r="I99" s="6">
-        <v>157544</v>
+        <v>118</v>
       </c>
       <c r="J99" t="s">
         <v>604</v>
       </c>
       <c r="K99" s="6">
-        <v>376518</v>
+        <v>376519</v>
       </c>
       <c r="L99" t="s">
         <v>724</v>
       </c>
       <c r="M99" s="6">
-        <v>114340</v>
+        <v>114515</v>
       </c>
       <c r="N99" t="s">
         <v>844</v>
       </c>
       <c r="O99" s="6">
-        <v>158841</v>
+        <v>158311</v>
       </c>
       <c r="P99" t="s">
         <v>964</v>
       </c>
       <c r="Q99" s="6">
-        <v>120584</v>
+        <v>120780</v>
       </c>
       <c r="R99" t="s">
         <v>1084</v>
       </c>
       <c r="S99" s="6">
-        <v>117140</v>
+        <v>116997</v>
       </c>
     </row>
     <row r="100" spans="2:19">
@@ -10001,55 +10073,55 @@
         <v>125</v>
       </c>
       <c r="C100" s="6">
-        <v>289722</v>
+        <v>288196</v>
       </c>
       <c r="D100" t="s">
         <v>245</v>
       </c>
       <c r="E100" s="6">
-        <v>282910</v>
+        <v>281042</v>
       </c>
       <c r="F100" t="s">
         <v>365</v>
       </c>
       <c r="G100" s="6">
-        <v>279638</v>
+        <v>279153</v>
       </c>
       <c r="H100" t="s">
         <v>485</v>
       </c>
       <c r="I100" s="6">
-        <v>289768</v>
+        <v>153</v>
       </c>
       <c r="J100" t="s">
         <v>605</v>
       </c>
       <c r="K100" s="6">
-        <v>838543</v>
+        <v>838970</v>
       </c>
       <c r="L100" t="s">
         <v>725</v>
       </c>
       <c r="M100" s="6">
-        <v>279638</v>
+        <v>279153</v>
       </c>
       <c r="N100" t="s">
         <v>845</v>
       </c>
       <c r="O100" s="6">
-        <v>286659</v>
+        <v>285338</v>
       </c>
       <c r="P100" t="s">
         <v>965</v>
       </c>
       <c r="Q100" s="6">
-        <v>279527</v>
+        <v>279128</v>
       </c>
       <c r="R100" t="s">
         <v>1085</v>
       </c>
       <c r="S100" s="6">
-        <v>280312</v>
+        <v>279880</v>
       </c>
     </row>
     <row r="101" spans="2:19">
@@ -10057,55 +10129,55 @@
         <v>126</v>
       </c>
       <c r="C101" s="6">
-        <v>38364</v>
+        <v>40172</v>
       </c>
       <c r="D101" t="s">
         <v>246</v>
       </c>
       <c r="E101" s="6">
-        <v>29188</v>
+        <v>29220</v>
       </c>
       <c r="F101" t="s">
         <v>366</v>
       </c>
       <c r="G101" s="6">
-        <v>31392</v>
+        <v>31577</v>
       </c>
       <c r="H101" t="s">
         <v>486</v>
       </c>
       <c r="I101" s="6">
-        <v>38364</v>
+        <v>679</v>
       </c>
       <c r="J101" t="s">
         <v>606</v>
       </c>
       <c r="K101" s="6">
-        <v>152132</v>
+        <v>156413</v>
       </c>
       <c r="L101" t="s">
         <v>726</v>
       </c>
       <c r="M101" s="6">
-        <v>31392</v>
+        <v>31577</v>
       </c>
       <c r="N101" t="s">
         <v>846</v>
       </c>
       <c r="O101" s="6">
-        <v>40084</v>
+        <v>42259</v>
       </c>
       <c r="P101" t="s">
         <v>966</v>
       </c>
       <c r="Q101" s="6">
-        <v>30312</v>
+        <v>30473</v>
       </c>
       <c r="R101" t="s">
         <v>1086</v>
       </c>
       <c r="S101" s="6">
-        <v>31482</v>
+        <v>31636</v>
       </c>
     </row>
     <row r="102" spans="2:19">
@@ -10113,55 +10185,55 @@
         <v>127</v>
       </c>
       <c r="C102" s="6">
-        <v>770096</v>
+        <v>770258</v>
       </c>
       <c r="D102" t="s">
         <v>247</v>
       </c>
       <c r="E102" s="6">
-        <v>703882</v>
+        <v>703854</v>
       </c>
       <c r="F102" t="s">
         <v>367</v>
       </c>
       <c r="G102" s="6">
-        <v>691019</v>
+        <v>691009</v>
       </c>
       <c r="H102" t="s">
         <v>487</v>
       </c>
       <c r="I102" s="6">
-        <v>770096</v>
+        <v>138</v>
       </c>
       <c r="J102" t="s">
         <v>607</v>
       </c>
       <c r="K102" s="6">
-        <v>288345</v>
+        <v>288360</v>
       </c>
       <c r="L102" t="s">
         <v>727</v>
       </c>
       <c r="M102" s="6">
-        <v>691019</v>
+        <v>691009</v>
       </c>
       <c r="N102" t="s">
         <v>847</v>
       </c>
       <c r="O102" s="6">
-        <v>232277</v>
+        <v>324610</v>
       </c>
       <c r="P102" t="s">
         <v>967</v>
       </c>
       <c r="Q102" s="6">
-        <v>719828</v>
+        <v>719870</v>
       </c>
       <c r="R102" t="s">
         <v>1087</v>
       </c>
       <c r="S102" s="6">
-        <v>692021</v>
+        <v>692169</v>
       </c>
     </row>
     <row r="103" spans="2:19">
@@ -10169,55 +10241,55 @@
         <v>128</v>
       </c>
       <c r="C103" s="6">
-        <v>89390</v>
+        <v>91534</v>
       </c>
       <c r="D103" t="s">
         <v>248</v>
       </c>
       <c r="E103" s="6">
-        <v>62548</v>
+        <v>62558</v>
       </c>
       <c r="F103" t="s">
         <v>368</v>
       </c>
       <c r="G103" s="6">
-        <v>68422</v>
+        <v>68648</v>
       </c>
       <c r="H103" t="s">
         <v>488</v>
       </c>
       <c r="I103" s="6">
-        <v>89390</v>
+        <v>782</v>
       </c>
       <c r="J103" t="s">
         <v>608</v>
       </c>
       <c r="K103" s="6">
-        <v>186720</v>
+        <v>187268</v>
       </c>
       <c r="L103" t="s">
         <v>728</v>
       </c>
       <c r="M103" s="6">
-        <v>68422</v>
+        <v>68648</v>
       </c>
       <c r="N103" t="s">
         <v>848</v>
       </c>
       <c r="O103" s="6">
-        <v>91200</v>
+        <v>93742</v>
       </c>
       <c r="P103" t="s">
         <v>968</v>
       </c>
       <c r="Q103" s="6">
-        <v>65799</v>
+        <v>66018</v>
       </c>
       <c r="R103" t="s">
         <v>1088</v>
       </c>
       <c r="S103" s="6">
-        <v>68533</v>
+        <v>68724</v>
       </c>
     </row>
     <row r="104" spans="2:19">
@@ -10225,55 +10297,55 @@
         <v>129</v>
       </c>
       <c r="C104" s="6">
-        <v>19143</v>
+        <v>19362</v>
       </c>
       <c r="D104" t="s">
         <v>249</v>
       </c>
       <c r="E104" s="6">
-        <v>13695</v>
+        <v>13697</v>
       </c>
       <c r="F104" t="s">
         <v>369</v>
       </c>
       <c r="G104" s="6">
-        <v>14228</v>
+        <v>14242</v>
       </c>
       <c r="H104" t="s">
         <v>489</v>
       </c>
       <c r="I104" s="6">
-        <v>19143</v>
+        <v>519</v>
       </c>
       <c r="J104" t="s">
         <v>609</v>
       </c>
       <c r="K104" s="6">
-        <v>38428</v>
+        <v>38433</v>
       </c>
       <c r="L104" t="s">
         <v>729</v>
       </c>
       <c r="M104" s="6">
-        <v>14228</v>
+        <v>14242</v>
       </c>
       <c r="N104" t="s">
         <v>849</v>
       </c>
       <c r="O104" s="6">
-        <v>20599</v>
+        <v>20848</v>
       </c>
       <c r="P104" t="s">
         <v>969</v>
       </c>
       <c r="Q104" s="6">
-        <v>13958</v>
+        <v>13983</v>
       </c>
       <c r="R104" t="s">
         <v>1089</v>
       </c>
       <c r="S104" s="6">
-        <v>14279</v>
+        <v>14288</v>
       </c>
     </row>
     <row r="105" spans="2:19">
@@ -10281,55 +10353,55 @@
         <v>130</v>
       </c>
       <c r="C105" s="6">
-        <v>53271</v>
+        <v>53562</v>
       </c>
       <c r="D105" t="s">
         <v>250</v>
       </c>
       <c r="E105" s="6">
-        <v>50460</v>
+        <v>50453</v>
       </c>
       <c r="F105" t="s">
         <v>370</v>
       </c>
       <c r="G105" s="6">
-        <v>51399</v>
+        <v>51478</v>
       </c>
       <c r="H105" t="s">
         <v>490</v>
       </c>
       <c r="I105" s="6">
-        <v>53271</v>
+        <v>2816</v>
       </c>
       <c r="J105" t="s">
         <v>610</v>
       </c>
       <c r="K105" s="6">
-        <v>145045</v>
+        <v>146247</v>
       </c>
       <c r="L105" t="s">
         <v>730</v>
       </c>
       <c r="M105" s="6">
-        <v>51399</v>
+        <v>51478</v>
       </c>
       <c r="N105" t="s">
         <v>850</v>
       </c>
       <c r="O105" s="6">
-        <v>53335</v>
+        <v>53501</v>
       </c>
       <c r="P105" t="s">
         <v>970</v>
       </c>
       <c r="Q105" s="6">
-        <v>51018</v>
+        <v>51122</v>
       </c>
       <c r="R105" t="s">
         <v>1090</v>
       </c>
       <c r="S105" s="6">
-        <v>51336</v>
+        <v>51404</v>
       </c>
     </row>
     <row r="106" spans="2:19">
@@ -10337,55 +10409,55 @@
         <v>131</v>
       </c>
       <c r="C106" s="6">
-        <v>60480</v>
+        <v>62094</v>
       </c>
       <c r="D106" t="s">
         <v>251</v>
       </c>
       <c r="E106" s="6">
-        <v>53305</v>
+        <v>53953</v>
       </c>
       <c r="F106" t="s">
         <v>371</v>
       </c>
       <c r="G106" s="6">
-        <v>56647</v>
+        <v>57685</v>
       </c>
       <c r="H106" t="s">
         <v>491</v>
       </c>
       <c r="I106" s="6">
-        <v>60480</v>
+        <v>1082</v>
       </c>
       <c r="J106" t="s">
         <v>611</v>
       </c>
       <c r="K106" s="6">
-        <v>125730</v>
+        <v>127003</v>
       </c>
       <c r="L106" t="s">
         <v>731</v>
       </c>
       <c r="M106" s="6">
-        <v>56647</v>
+        <v>57685</v>
       </c>
       <c r="N106" t="s">
         <v>851</v>
       </c>
       <c r="O106" s="6">
-        <v>64914</v>
+        <v>65956</v>
       </c>
       <c r="P106" t="s">
         <v>971</v>
       </c>
       <c r="Q106" s="6">
-        <v>53796</v>
+        <v>54895</v>
       </c>
       <c r="R106" t="s">
         <v>1091</v>
       </c>
       <c r="S106" s="6">
-        <v>56647</v>
+        <v>57685</v>
       </c>
     </row>
     <row r="107" spans="2:19">
@@ -10393,55 +10465,55 @@
         <v>132</v>
       </c>
       <c r="C107" s="6">
-        <v>27647</v>
+        <v>28168</v>
       </c>
       <c r="D107" t="s">
         <v>252</v>
       </c>
       <c r="E107" s="6">
-        <v>55517</v>
+        <v>54793</v>
       </c>
       <c r="F107" t="s">
         <v>372</v>
       </c>
       <c r="G107" s="6">
-        <v>57238</v>
+        <v>57132</v>
       </c>
       <c r="H107" t="s">
         <v>492</v>
       </c>
       <c r="I107" s="6">
-        <v>27647</v>
+        <v>149</v>
       </c>
       <c r="J107" t="s">
         <v>612</v>
       </c>
       <c r="K107" s="6">
-        <v>59072</v>
+        <v>61141</v>
       </c>
       <c r="L107" t="s">
         <v>732</v>
       </c>
       <c r="M107" s="6">
-        <v>57238</v>
+        <v>57132</v>
       </c>
       <c r="N107" t="s">
         <v>852</v>
       </c>
       <c r="O107" s="6">
-        <v>19033</v>
+        <v>20479</v>
       </c>
       <c r="P107" t="s">
         <v>972</v>
       </c>
       <c r="Q107" s="6">
-        <v>45440</v>
+        <v>45439</v>
       </c>
       <c r="R107" t="s">
         <v>1092</v>
       </c>
       <c r="S107" s="6">
-        <v>57687</v>
+        <v>57585</v>
       </c>
     </row>
     <row r="108" spans="2:19">
@@ -10449,55 +10521,55 @@
         <v>133</v>
       </c>
       <c r="C108" s="6">
-        <v>12257</v>
+        <v>12713</v>
       </c>
       <c r="D108" t="s">
         <v>253</v>
       </c>
       <c r="E108" s="6">
-        <v>32153</v>
+        <v>32259</v>
       </c>
       <c r="F108" t="s">
         <v>373</v>
       </c>
       <c r="G108" s="6">
-        <v>32980</v>
+        <v>32960</v>
       </c>
       <c r="H108" t="s">
         <v>493</v>
       </c>
       <c r="I108" s="6">
-        <v>12257</v>
+        <v>130</v>
       </c>
       <c r="J108" t="s">
         <v>613</v>
       </c>
       <c r="K108" s="6">
-        <v>5010</v>
+        <v>5079</v>
       </c>
       <c r="L108" t="s">
         <v>733</v>
       </c>
       <c r="M108" s="6">
-        <v>32980</v>
+        <v>32960</v>
       </c>
       <c r="N108" t="s">
         <v>853</v>
       </c>
       <c r="O108" s="6">
-        <v>3601</v>
+        <v>3770</v>
       </c>
       <c r="P108" t="s">
         <v>973</v>
       </c>
       <c r="Q108" s="6">
-        <v>23389</v>
+        <v>23587</v>
       </c>
       <c r="R108" t="s">
         <v>1093</v>
       </c>
       <c r="S108" s="6">
-        <v>32980</v>
+        <v>32960</v>
       </c>
     </row>
     <row r="109" spans="2:19">
@@ -10505,55 +10577,55 @@
         <v>134</v>
       </c>
       <c r="C109" s="6">
-        <v>55541</v>
+        <v>50947</v>
       </c>
       <c r="D109" t="s">
         <v>254</v>
       </c>
       <c r="E109" s="6">
-        <v>91129</v>
+        <v>91118</v>
       </c>
       <c r="F109" t="s">
         <v>374</v>
       </c>
       <c r="G109" s="6">
-        <v>94894</v>
+        <v>94744</v>
       </c>
       <c r="H109" t="s">
         <v>494</v>
       </c>
       <c r="I109" s="6">
-        <v>55541</v>
+        <v>124</v>
       </c>
       <c r="J109" t="s">
         <v>614</v>
       </c>
       <c r="K109" s="6">
-        <v>99442</v>
+        <v>99875</v>
       </c>
       <c r="L109" t="s">
         <v>734</v>
       </c>
       <c r="M109" s="6">
-        <v>94894</v>
+        <v>94744</v>
       </c>
       <c r="N109" t="s">
         <v>854</v>
       </c>
       <c r="O109" s="6">
-        <v>38785</v>
+        <v>38225</v>
       </c>
       <c r="P109" t="s">
         <v>974</v>
       </c>
       <c r="Q109" s="6">
-        <v>80333</v>
+        <v>78119</v>
       </c>
       <c r="R109" t="s">
         <v>1094</v>
       </c>
       <c r="S109" s="6">
-        <v>95492</v>
+        <v>95347</v>
       </c>
     </row>
     <row r="110" spans="2:19">
@@ -10561,55 +10633,55 @@
         <v>135</v>
       </c>
       <c r="C110" s="6">
-        <v>113377</v>
+        <v>115877</v>
       </c>
       <c r="D110" t="s">
         <v>255</v>
       </c>
       <c r="E110" s="6">
-        <v>248569</v>
+        <v>251633</v>
       </c>
       <c r="F110" t="s">
         <v>375</v>
       </c>
       <c r="G110" s="6">
-        <v>255441</v>
+        <v>255406</v>
       </c>
       <c r="H110" t="s">
         <v>495</v>
       </c>
       <c r="I110" s="6">
-        <v>113377</v>
+        <v>151</v>
       </c>
       <c r="J110" t="s">
         <v>615</v>
       </c>
       <c r="K110" s="6">
-        <v>90538</v>
+        <v>92652</v>
       </c>
       <c r="L110" t="s">
         <v>735</v>
       </c>
       <c r="M110" s="6">
-        <v>255441</v>
+        <v>255406</v>
       </c>
       <c r="N110" t="s">
         <v>855</v>
       </c>
       <c r="O110" s="6">
-        <v>79461</v>
+        <v>82113</v>
       </c>
       <c r="P110" t="s">
         <v>975</v>
       </c>
       <c r="Q110" s="6">
-        <v>151584</v>
+        <v>153005</v>
       </c>
       <c r="R110" t="s">
         <v>1095</v>
       </c>
       <c r="S110" s="6">
-        <v>255441</v>
+        <v>255406</v>
       </c>
     </row>
     <row r="111" spans="2:19">
@@ -10617,55 +10689,55 @@
         <v>136</v>
       </c>
       <c r="C111" s="6">
-        <v>81348</v>
+        <v>81690</v>
       </c>
       <c r="D111" t="s">
         <v>256</v>
       </c>
       <c r="E111" s="6">
-        <v>75915</v>
+        <v>75896</v>
       </c>
       <c r="F111" t="s">
         <v>376</v>
       </c>
       <c r="G111" s="6">
-        <v>80221</v>
+        <v>80390</v>
       </c>
       <c r="H111" t="s">
         <v>496</v>
       </c>
       <c r="I111" s="6">
-        <v>81348</v>
+        <v>876</v>
       </c>
       <c r="J111" t="s">
         <v>616</v>
       </c>
       <c r="K111" s="6">
-        <v>102136</v>
+        <v>102116</v>
       </c>
       <c r="L111" t="s">
         <v>736</v>
       </c>
       <c r="M111" s="6">
-        <v>80221</v>
+        <v>80390</v>
       </c>
       <c r="N111" t="s">
         <v>856</v>
       </c>
       <c r="O111" s="6">
-        <v>85122</v>
+        <v>85728</v>
       </c>
       <c r="P111" t="s">
         <v>976</v>
       </c>
       <c r="Q111" s="6">
-        <v>76185</v>
+        <v>76236</v>
       </c>
       <c r="R111" t="s">
         <v>1096</v>
       </c>
       <c r="S111" s="6">
-        <v>80221</v>
+        <v>80390</v>
       </c>
     </row>
     <row r="112" spans="2:19">
@@ -10673,55 +10745,55 @@
         <v>137</v>
       </c>
       <c r="C112" s="6">
-        <v>452039</v>
+        <v>451372</v>
       </c>
       <c r="D112" t="s">
         <v>257</v>
       </c>
       <c r="E112" s="6">
-        <v>492934</v>
+        <v>491499</v>
       </c>
       <c r="F112" t="s">
         <v>377</v>
       </c>
       <c r="G112" s="6">
-        <v>548731</v>
+        <v>546409</v>
       </c>
       <c r="H112" t="s">
         <v>497</v>
       </c>
       <c r="I112" s="6">
-        <v>452039</v>
+        <v>153</v>
       </c>
       <c r="J112" t="s">
         <v>617</v>
       </c>
       <c r="K112" s="6">
-        <v>395746</v>
+        <v>397810</v>
       </c>
       <c r="L112" t="s">
         <v>737</v>
       </c>
       <c r="M112" s="6">
-        <v>548731</v>
+        <v>546409</v>
       </c>
       <c r="N112" t="s">
         <v>857</v>
       </c>
       <c r="O112" s="6">
-        <v>337109</v>
+        <v>339486</v>
       </c>
       <c r="P112" t="s">
         <v>977</v>
       </c>
       <c r="Q112" s="6">
-        <v>451887</v>
+        <v>451143</v>
       </c>
       <c r="R112" t="s">
         <v>1097</v>
       </c>
       <c r="S112" s="6">
-        <v>548731</v>
+        <v>546409</v>
       </c>
     </row>
     <row r="113" spans="1:19">
@@ -10729,7 +10801,7 @@
         <v>138</v>
       </c>
       <c r="C113" s="6">
-        <v>46705</v>
+        <v>46698</v>
       </c>
       <c r="D113" t="s">
         <v>258</v>
@@ -10747,7 +10819,7 @@
         <v>498</v>
       </c>
       <c r="I113" s="6">
-        <v>46701</v>
+        <v>149</v>
       </c>
       <c r="J113" t="s">
         <v>618</v>
@@ -10771,7 +10843,7 @@
         <v>978</v>
       </c>
       <c r="Q113" s="6">
-        <v>98840</v>
+        <v>98843</v>
       </c>
       <c r="R113" t="s">
         <v>1098</v>
@@ -10785,55 +10857,55 @@
         <v>139</v>
       </c>
       <c r="C114" s="6">
-        <v>118881</v>
+        <v>122965</v>
       </c>
       <c r="D114" t="s">
         <v>259</v>
       </c>
       <c r="E114" s="6">
-        <v>104643</v>
+        <v>104837</v>
       </c>
       <c r="F114" t="s">
         <v>379</v>
       </c>
       <c r="G114" s="6">
-        <v>101148</v>
+        <v>101204</v>
       </c>
       <c r="H114" t="s">
         <v>499</v>
       </c>
       <c r="I114" s="6">
-        <v>118881</v>
+        <v>979</v>
       </c>
       <c r="J114" t="s">
         <v>619</v>
       </c>
       <c r="K114" s="6">
-        <v>160220</v>
+        <v>160273</v>
       </c>
       <c r="L114" t="s">
         <v>739</v>
       </c>
       <c r="M114" s="6">
-        <v>101148</v>
+        <v>101204</v>
       </c>
       <c r="N114" t="s">
         <v>859</v>
       </c>
       <c r="O114" s="6">
-        <v>120541</v>
+        <v>124986</v>
       </c>
       <c r="P114" t="s">
         <v>979</v>
       </c>
       <c r="Q114" s="6">
-        <v>107575</v>
+        <v>108382</v>
       </c>
       <c r="R114" t="s">
         <v>1099</v>
       </c>
       <c r="S114" s="6">
-        <v>100845</v>
+        <v>100872</v>
       </c>
     </row>
     <row r="115" spans="1:19">
@@ -10841,55 +10913,55 @@
         <v>140</v>
       </c>
       <c r="C115" s="6">
-        <v>115443</v>
+        <v>100423</v>
       </c>
       <c r="D115" t="s">
         <v>260</v>
       </c>
       <c r="E115" s="6">
-        <v>151090</v>
+        <v>150437</v>
       </c>
       <c r="F115" t="s">
         <v>380</v>
       </c>
       <c r="G115" s="6">
-        <v>157339</v>
+        <v>157390</v>
       </c>
       <c r="H115" t="s">
         <v>500</v>
       </c>
       <c r="I115" s="6">
-        <v>115443</v>
+        <v>156</v>
       </c>
       <c r="J115" t="s">
         <v>620</v>
       </c>
       <c r="K115" s="6">
-        <v>350233</v>
+        <v>347228</v>
       </c>
       <c r="L115" t="s">
         <v>740</v>
       </c>
       <c r="M115" s="6">
-        <v>157339</v>
+        <v>157390</v>
       </c>
       <c r="N115" t="s">
         <v>860</v>
       </c>
       <c r="O115" s="6">
-        <v>96528</v>
+        <v>86004</v>
       </c>
       <c r="P115" t="s">
         <v>980</v>
       </c>
       <c r="Q115" s="6">
-        <v>149618</v>
+        <v>147306</v>
       </c>
       <c r="R115" t="s">
         <v>1100</v>
       </c>
       <c r="S115" s="6">
-        <v>157413</v>
+        <v>157326</v>
       </c>
     </row>
     <row r="116" spans="1:19">
@@ -10897,55 +10969,55 @@
         <v>141</v>
       </c>
       <c r="C116" s="6">
-        <v>47791</v>
+        <v>45685</v>
       </c>
       <c r="D116" t="s">
         <v>261</v>
       </c>
       <c r="E116" s="6">
-        <v>70282</v>
+        <v>70049</v>
       </c>
       <c r="F116" t="s">
         <v>381</v>
       </c>
       <c r="G116" s="6">
-        <v>73086</v>
+        <v>73011</v>
       </c>
       <c r="H116" t="s">
         <v>501</v>
       </c>
       <c r="I116" s="6">
-        <v>47791</v>
+        <v>143</v>
       </c>
       <c r="J116" t="s">
         <v>621</v>
       </c>
       <c r="K116" s="6">
-        <v>130968</v>
+        <v>130820</v>
       </c>
       <c r="L116" t="s">
         <v>741</v>
       </c>
       <c r="M116" s="6">
-        <v>73086</v>
+        <v>73011</v>
       </c>
       <c r="N116" t="s">
         <v>861</v>
       </c>
       <c r="O116" s="6">
-        <v>41875</v>
+        <v>40367</v>
       </c>
       <c r="P116" t="s">
         <v>981</v>
       </c>
       <c r="Q116" s="6">
-        <v>66002</v>
+        <v>65715</v>
       </c>
       <c r="R116" t="s">
         <v>1101</v>
       </c>
       <c r="S116" s="6">
-        <v>74299</v>
+        <v>74225</v>
       </c>
     </row>
     <row r="117" spans="1:19">
@@ -10953,55 +11025,55 @@
         <v>142</v>
       </c>
       <c r="C117" s="6">
-        <v>72447</v>
+        <v>69068</v>
       </c>
       <c r="D117" t="s">
         <v>262</v>
       </c>
       <c r="E117" s="6">
-        <v>108202</v>
+        <v>107848</v>
       </c>
       <c r="F117" t="s">
         <v>382</v>
       </c>
       <c r="G117" s="6">
-        <v>122699</v>
+        <v>122631</v>
       </c>
       <c r="H117" t="s">
         <v>502</v>
       </c>
       <c r="I117" s="6">
-        <v>72447</v>
+        <v>195</v>
       </c>
       <c r="J117" t="s">
         <v>622</v>
       </c>
       <c r="K117" s="6">
-        <v>59844</v>
+        <v>59613</v>
       </c>
       <c r="L117" t="s">
         <v>742</v>
       </c>
       <c r="M117" s="6">
-        <v>122699</v>
+        <v>122631</v>
       </c>
       <c r="N117" t="s">
         <v>862</v>
       </c>
       <c r="O117" s="6">
-        <v>34024</v>
+        <v>32850</v>
       </c>
       <c r="P117" t="s">
         <v>982</v>
       </c>
       <c r="Q117" s="6">
-        <v>109599</v>
+        <v>109719</v>
       </c>
       <c r="R117" t="s">
         <v>1102</v>
       </c>
       <c r="S117" s="6">
-        <v>122699</v>
+        <v>122631</v>
       </c>
     </row>
     <row r="118" spans="1:19">
@@ -11009,43 +11081,43 @@
         <v>143</v>
       </c>
       <c r="C118" s="6">
-        <v>214295</v>
+        <v>213212</v>
       </c>
       <c r="D118" t="s">
         <v>263</v>
       </c>
       <c r="E118" s="6">
-        <v>315867</v>
+        <v>313237</v>
       </c>
       <c r="F118" t="s">
         <v>383</v>
       </c>
       <c r="G118" s="6">
-        <v>347560</v>
+        <v>347243</v>
       </c>
       <c r="H118" t="s">
         <v>503</v>
       </c>
       <c r="I118" s="6">
-        <v>214295</v>
+        <v>128</v>
       </c>
       <c r="J118" t="s">
         <v>623</v>
       </c>
       <c r="K118" s="6">
-        <v>210855</v>
+        <v>271397</v>
       </c>
       <c r="L118" t="s">
         <v>743</v>
       </c>
       <c r="M118" s="6">
-        <v>347560</v>
+        <v>347243</v>
       </c>
       <c r="N118" t="s">
         <v>863</v>
       </c>
       <c r="O118" s="6">
-        <v>157101</v>
+        <v>157586</v>
       </c>
       <c r="P118" t="s">
         <v>983</v>
@@ -11057,7 +11129,7 @@
         <v>1103</v>
       </c>
       <c r="S118" s="6">
-        <v>146299</v>
+        <v>146221</v>
       </c>
     </row>
     <row r="119" spans="1:19">
@@ -11065,55 +11137,55 @@
         <v>144</v>
       </c>
       <c r="C119" s="6">
-        <v>70495</v>
+        <v>70732</v>
       </c>
       <c r="D119" t="s">
         <v>264</v>
       </c>
       <c r="E119" s="6">
-        <v>62955</v>
+        <v>62962</v>
       </c>
       <c r="F119" t="s">
         <v>384</v>
       </c>
       <c r="G119" s="6">
-        <v>68299</v>
+        <v>68325</v>
       </c>
       <c r="H119" t="s">
         <v>504</v>
       </c>
       <c r="I119" s="6">
-        <v>70495</v>
+        <v>894</v>
       </c>
       <c r="J119" t="s">
         <v>624</v>
       </c>
       <c r="K119" s="6">
-        <v>119196</v>
+        <v>119360</v>
       </c>
       <c r="L119" t="s">
         <v>744</v>
       </c>
       <c r="M119" s="6">
-        <v>68299</v>
+        <v>68325</v>
       </c>
       <c r="N119" t="s">
         <v>864</v>
       </c>
       <c r="O119" s="6">
-        <v>76153</v>
+        <v>76773</v>
       </c>
       <c r="P119" t="s">
         <v>984</v>
       </c>
       <c r="Q119" s="6">
-        <v>63733</v>
+        <v>63744</v>
       </c>
       <c r="R119" t="s">
         <v>1104</v>
       </c>
       <c r="S119" s="6">
-        <v>68299</v>
+        <v>68325</v>
       </c>
     </row>
     <row r="120" spans="1:19">
@@ -11121,55 +11193,55 @@
         <v>145</v>
       </c>
       <c r="C120" s="6">
-        <v>90725</v>
+        <v>91359</v>
       </c>
       <c r="D120" t="s">
         <v>265</v>
       </c>
       <c r="E120" s="6">
-        <v>77209</v>
+        <v>77200</v>
       </c>
       <c r="F120" t="s">
         <v>385</v>
       </c>
       <c r="G120" s="6">
-        <v>81716</v>
+        <v>81768</v>
       </c>
       <c r="H120" t="s">
         <v>505</v>
       </c>
       <c r="I120" s="6">
-        <v>90725</v>
+        <v>641</v>
       </c>
       <c r="J120" t="s">
         <v>625</v>
       </c>
       <c r="K120" s="6">
-        <v>105351</v>
+        <v>105328</v>
       </c>
       <c r="L120" t="s">
         <v>745</v>
       </c>
       <c r="M120" s="6">
-        <v>81716</v>
+        <v>81768</v>
       </c>
       <c r="N120" t="s">
         <v>865</v>
       </c>
       <c r="O120" s="6">
-        <v>90725</v>
+        <v>91359</v>
       </c>
       <c r="P120" t="s">
         <v>985</v>
       </c>
       <c r="Q120" s="6">
-        <v>79814</v>
+        <v>79859</v>
       </c>
       <c r="R120" t="s">
         <v>1105</v>
       </c>
       <c r="S120" s="6">
-        <v>81716</v>
+        <v>81768</v>
       </c>
     </row>
     <row r="121" spans="1:19">
@@ -11195,13 +11267,13 @@
         <v>506</v>
       </c>
       <c r="I121" s="6">
-        <v>77105</v>
+        <v>1166</v>
       </c>
       <c r="J121" t="s">
         <v>626</v>
       </c>
       <c r="K121" s="6">
-        <v>75911</v>
+        <v>75924</v>
       </c>
       <c r="L121" t="s">
         <v>746</v>
@@ -11213,7 +11285,7 @@
         <v>866</v>
       </c>
       <c r="O121" s="6">
-        <v>84344</v>
+        <v>84356</v>
       </c>
       <c r="P121" t="s">
         <v>986</v>
@@ -11251,7 +11323,7 @@
         <v>507</v>
       </c>
       <c r="I122" s="6">
-        <v>9645</v>
+        <v>641</v>
       </c>
       <c r="J122" t="s">
         <v>627</v>
@@ -11290,39 +11362,39 @@
       </c>
       <c r="C123" s="11">
         <f>AVERAGE(C3:C122)</f>
-        <v>251119.10833333334</v>
+        <v>251077.8</v>
       </c>
       <c r="E123" s="11">
         <f>AVERAGE(E3:E122)</f>
-        <v>255358.625</v>
+        <v>255203.6</v>
       </c>
       <c r="G123" s="11">
         <f>AVERAGE(G3:G122)</f>
-        <v>255314.75</v>
+        <v>255312.85833333334</v>
       </c>
       <c r="I123" s="11">
         <f>AVERAGE(I3:I122)</f>
-        <v>251118.65833333333</v>
+        <v>2935.6833333333334</v>
       </c>
       <c r="K123" s="11">
         <f>AVERAGE(K3:K122)</f>
-        <v>261304.15</v>
+        <v>265898.51666666666</v>
       </c>
       <c r="M123" s="11">
         <f>AVERAGE(M3:M122)</f>
-        <v>255314.53333333333</v>
+        <v>255311.35833333334</v>
       </c>
       <c r="O123" s="11">
         <f>AVERAGE(O3:O122)</f>
-        <v>200894.1</v>
+        <v>205349.94166666668</v>
       </c>
       <c r="Q123" s="11">
         <f>AVERAGE(Q3:Q122)</f>
-        <v>249132.09166666667</v>
+        <v>249208.60833333334</v>
       </c>
       <c r="S123" s="11">
         <f>AVERAGE(S3:S122)</f>
-        <v>248644.65833333333</v>
+        <v>248646.14166666666</v>
       </c>
     </row>
     <row r="124" spans="1:19" s="1" customFormat="1">
@@ -11331,39 +11403,39 @@
       </c>
       <c r="C124" s="5">
         <f>MEDIAN(C3:C122)</f>
-        <v>85555</v>
+        <v>84415</v>
       </c>
       <c r="E124" s="5">
         <f>MEDIAN(E3:E122)</f>
-        <v>90564.5</v>
+        <v>90559</v>
       </c>
       <c r="G124" s="5">
         <f>MEDIAN(G3:G122)</f>
-        <v>95484.5</v>
+        <v>95409.5</v>
       </c>
       <c r="I124" s="5">
         <f>MEDIAN(I3:I122)</f>
-        <v>85555</v>
+        <v>329</v>
       </c>
       <c r="K124" s="5">
         <f>MEDIAN(K3:K122)</f>
-        <v>107747</v>
+        <v>111879.5</v>
       </c>
       <c r="M124" s="5">
         <f>MEDIAN(M3:M122)</f>
-        <v>95484.5</v>
+        <v>95409.5</v>
       </c>
       <c r="O124" s="5">
         <f>MEDIAN(O3:O122)</f>
-        <v>78503</v>
+        <v>81303.5</v>
       </c>
       <c r="Q124" s="5">
         <f>MEDIAN(Q3:Q122)</f>
-        <v>83352.5</v>
+        <v>83256</v>
       </c>
       <c r="S124" s="5">
         <f>MEDIAN(S3:S122)</f>
-        <v>90467</v>
+        <v>90358.5</v>
       </c>
     </row>
     <row r="125" spans="1:19" s="2" customFormat="1">
@@ -11372,39 +11444,39 @@
       </c>
       <c r="C125" s="7">
         <f>SUM(C3:C122)</f>
-        <v>30134293</v>
+        <v>30129336</v>
       </c>
       <c r="E125" s="7">
         <f>SUM(E3:E122)</f>
-        <v>30643035</v>
+        <v>30624432</v>
       </c>
       <c r="G125" s="7">
         <f>SUM(G3:G122)</f>
-        <v>30637770</v>
+        <v>30637543</v>
       </c>
       <c r="I125" s="7">
         <f>SUM(I3:I122)</f>
-        <v>30134239</v>
+        <v>352282</v>
       </c>
       <c r="K125" s="7">
         <f>SUM(K3:K122)</f>
-        <v>31356498</v>
+        <v>31907822</v>
       </c>
       <c r="M125" s="7">
         <f>SUM(M3:M122)</f>
-        <v>30637744</v>
+        <v>30637363</v>
       </c>
       <c r="O125" s="7">
         <f>SUM(O3:O122)</f>
-        <v>24107292</v>
+        <v>24641993</v>
       </c>
       <c r="Q125" s="7">
         <f>SUM(Q3:Q122)</f>
-        <v>29895851</v>
+        <v>29905033</v>
       </c>
       <c r="S125" s="7">
         <f>SUM(S3:S122)</f>
-        <v>29837359</v>
+        <v>29837537</v>
       </c>
     </row>
     <row r="126" spans="1:19" s="1" customFormat="1">
@@ -11413,39 +11485,39 @@
       </c>
       <c r="C126" s="5">
         <f>AVERAGE(C3:C7,C12:C17,C21,C23:C26,C31,C34,C39:C47,C52:C57,C61,C63:C66,C71,C74,C79:C87,C92:C97,C101,C103:C106,C111,C114,C119:C122)</f>
-        <v>99879.15151515152</v>
+        <v>100299.75757575757</v>
       </c>
       <c r="E126" s="5">
         <f>AVERAGE(E3:E7,E12:E17,E21,E23:E26,E31,E34,E39:E47,E52:E57,E61,E63:E66,E71,E74,E79:E87,E92:E97,E101,E103:E106,E111,E114,E119:E122)</f>
-        <v>92191.181818181823</v>
+        <v>92234.07575757576</v>
       </c>
       <c r="G126" s="5">
         <f>AVERAGE(G3:G7,G12:G17,G21,G23:G26,G31,G34,G39:G47,G52:G57,G61,G63:G66,G71,G74,G79:G87,G92:G97,G101,G103:G106,G111,G114,G119:G122)</f>
-        <v>94438.272727272721</v>
+        <v>94527</v>
       </c>
       <c r="I126" s="5">
         <f>AVERAGE(I3:I7,I12:I17,I21,I23:I26,I31,I34,I39:I47,I52:I57,I61,I63:I66,I71,I74,I79:I87,I92:I97,I101,I103:I106,I111,I114,I119:I122)</f>
-        <v>99879.15151515152</v>
+        <v>1553.3484848484848</v>
       </c>
       <c r="K126" s="5">
         <f>AVERAGE(K3:K7,K12:K17,K21,K23:K26,K31,K34,K39:K47,K52:K57,K61,K63:K66,K71,K74,K79:K87,K92:K97,K101,K103:K106,K111,K114,K119:K122)</f>
-        <v>134637.19696969696</v>
+        <v>135007.5</v>
       </c>
       <c r="M126" s="5">
         <f>AVERAGE(M3:M7,M12:M17,M21,M23:M26,M31,M34,M39:M47,M52:M57,M61,M63:M66,M71,M74,M79:M87,M92:M97,M101,M103:M106,M111,M114,M119:M122)</f>
-        <v>94438.272727272721</v>
+        <v>94527</v>
       </c>
       <c r="O126" s="5">
         <f>AVERAGE(O3:O7,O12:O17,O21,O23:O26,O31,O34,O39:O47,O52:O57,O61,O63:O66,O71,O74,O79:O87,O92:O97,O101,O103:O106,O111,O114,O119:O122)</f>
-        <v>104952.62121212122</v>
+        <v>105457.04545454546</v>
       </c>
       <c r="Q126" s="5">
         <f>AVERAGE(Q3:Q7,Q12:Q17,Q21,Q23:Q26,Q31,Q34,Q39:Q47,Q52:Q57,Q61,Q63:Q66,Q71,Q74,Q79:Q87,Q92:Q97,Q101,Q103:Q106,Q111,Q114,Q119:Q122)</f>
-        <v>92175.666666666672</v>
+        <v>92264.030303030304</v>
       </c>
       <c r="S126" s="5">
         <f>AVERAGE(S3:S7,S12:S17,S21,S23:S26,S31,S34,S39:S47,S52:S57,S61,S63:S66,S71,S74,S79:S87,S92:S97,S101,S103:S106,S111,S114,S119:S122)</f>
-        <v>94422.803030303025</v>
+        <v>94504.484848484848</v>
       </c>
     </row>
     <row r="127" spans="1:19" s="1" customFormat="1">
@@ -11454,19 +11526,19 @@
       </c>
       <c r="C127" s="5">
         <f>MEDIAN(C3:C7,C12:C17,C21,C23:C26,C31,C34,C39:C47,C52:C57,C61,C63:C66,C71,C74,C79:C87,C92:C97,C101,C103:C106,C111,C114,C119:C122)</f>
-        <v>62042.5</v>
+        <v>62938</v>
       </c>
       <c r="E127" s="5">
         <f>MEDIAN(E3:E7,E12:E17,E21,E23:E26,E31,E34,E39:E47,E52:E57,E61,E63:E66,E71,E74,E79:E87,E92:E97,E101,E103:E106,E111,E114,E119:E122)</f>
-        <v>52979.5</v>
+        <v>53303.5</v>
       </c>
       <c r="G127" s="5">
         <f>MEDIAN(G3:G7,G12:G17,G21,G23:G26,G31,G34,G39:G47,G52:G57,G61,G63:G66,G71,G74,G79:G87,G92:G97,G101,G103:G106,G111,G114,G119:G122)</f>
-        <v>51921.5</v>
+        <v>52007.5</v>
       </c>
       <c r="I127" s="5">
         <f>MEDIAN(I3:I7,I12:I17,I21,I23:I26,I31,I34,I39:I47,I52:I57,I61,I63:I66,I71,I74,I79:I87,I92:I97,I101,I103:I106,I111,I114,I119:I122)</f>
-        <v>62042.5</v>
+        <v>885</v>
       </c>
       <c r="K127" s="5">
         <f>MEDIAN(K3:K7,K12:K17,K21,K23:K26,K31,K34,K39:K47,K52:K57,K61,K63:K66,K71,K74,K79:K87,K92:K97,K101,K103:K106,K111,K114,K119:K122)</f>
@@ -11474,19 +11546,19 @@
       </c>
       <c r="M127" s="5">
         <f>MEDIAN(M3:M7,M12:M17,M21,M23:M26,M31,M34,M39:M47,M52:M57,M61,M63:M66,M71,M74,M79:M87,M92:M97,M101,M103:M106,M111,M114,M119:M122)</f>
-        <v>51921.5</v>
+        <v>52007.5</v>
       </c>
       <c r="O127" s="5">
         <f>MEDIAN(O3:O7,O12:O17,O21,O23:O26,O31,O34,O39:O47,O52:O57,O61,O63:O66,O71,O74,O79:O87,O92:O97,O101,O103:O106,O111,O114,O119:O122)</f>
-        <v>64658</v>
+        <v>65273.5</v>
       </c>
       <c r="Q127" s="5">
         <f>MEDIAN(Q3:Q7,Q12:Q17,Q21,Q23:Q26,Q31,Q34,Q39:Q47,Q52:Q57,Q61,Q63:Q66,Q71,Q74,Q79:Q87,Q92:Q97,Q101,Q103:Q106,Q111,Q114,Q119:Q122)</f>
-        <v>53453</v>
+        <v>54002.5</v>
       </c>
       <c r="S127" s="5">
         <f>MEDIAN(S3:S7,S12:S17,S21,S23:S26,S31,S34,S39:S47,S52:S57,S61,S63:S66,S71,S74,S79:S87,S92:S97,S101,S103:S106,S111,S114,S119:S122)</f>
-        <v>51942.5</v>
+        <v>52017.5</v>
       </c>
     </row>
     <row r="128" spans="1:19" s="2" customFormat="1">
@@ -11495,39 +11567,39 @@
       </c>
       <c r="C128" s="7">
         <f>SUM(C3:C7,C12:C17,C21,C23:C26,C31,C34,C39:C47,C52:C57,C61,C63:C66,C71,C74,C79:C87,C92:C97,C101,C103:C106,C111,C114,C119:C122)</f>
-        <v>6592024</v>
+        <v>6619784</v>
       </c>
       <c r="E128" s="7">
         <f>SUM(E3:E7,E12:E17,E21,E23:E26,E31,E34,E39:E47,E52:E57,E61,E63:E66,E71,E74,E79:E87,E92:E97,E101,E103:E106,E111,E114,E119:E122)</f>
-        <v>6084618</v>
+        <v>6087449</v>
       </c>
       <c r="G128" s="7">
         <f>SUM(G3:G7,G12:G17,G21,G23:G26,G31,G34,G39:G47,G52:G57,G61,G63:G66,G71,G74,G79:G87,G92:G97,G101,G103:G106,G111,G114,G119:G122)</f>
-        <v>6232926</v>
+        <v>6238782</v>
       </c>
       <c r="I128" s="7">
         <f>SUM(I3:I7,I12:I17,I21,I23:I26,I31,I34,I39:I47,I52:I57,I61,I63:I66,I71,I74,I79:I87,I92:I97,I101,I103:I106,I111,I114,I119:I122)</f>
-        <v>6592024</v>
+        <v>102521</v>
       </c>
       <c r="K128" s="7">
         <f>SUM(K3:K7,K12:K17,K21,K23:K26,K31,K34,K39:K47,K52:K57,K61,K63:K66,K71,K74,K79:K87,K92:K97,K101,K103:K106,K111,K114,K119:K122)</f>
-        <v>8886055</v>
+        <v>8910495</v>
       </c>
       <c r="M128" s="7">
         <f>SUM(M3:M7,M12:M17,M21,M23:M26,M31,M34,M39:M47,M52:M57,M61,M63:M66,M71,M74,M79:M87,M92:M97,M101,M103:M106,M111,M114,M119:M122)</f>
-        <v>6232926</v>
+        <v>6238782</v>
       </c>
       <c r="O128" s="7">
         <f>SUM(O3:O7,O12:O17,O21,O23:O26,O31,O34,O39:O47,O52:O57,O61,O63:O66,O71,O74,O79:O87,O92:O97,O101,O103:O106,O111,O114,O119:O122)</f>
-        <v>6926873</v>
+        <v>6960165</v>
       </c>
       <c r="Q128" s="7">
         <f>SUM(Q3:Q7,Q12:Q17,Q21,Q23:Q26,Q31,Q34,Q39:Q47,Q52:Q57,Q61,Q63:Q66,Q71,Q74,Q79:Q87,Q92:Q97,Q101,Q103:Q106,Q111,Q114,Q119:Q122)</f>
-        <v>6083594</v>
+        <v>6089426</v>
       </c>
       <c r="S128" s="7">
         <f>SUM(S3:S7,S12:S17,S21,S23:S26,S31,S34,S39:S47,S52:S57,S61,S63:S66,S71,S74,S79:S87,S92:S97,S101,S103:S106,S111,S114,S119:S122)</f>
-        <v>6231905</v>
+        <v>6237296</v>
       </c>
     </row>
     <row r="129" spans="1:19" s="1" customFormat="1">
@@ -11536,39 +11608,39 @@
       </c>
       <c r="C129" s="5">
         <f>AVERAGE(C8:C11,C18:C20,C22,C27:C30,C32:C33,C35:C38,C48:C51,C58:C60,C62,C67:C70,C72:C73,C75:C78,C88:C91,C98:C100,C102,C107:C110,C112:C113,C115:C118)</f>
-        <v>435967.94444444444</v>
+        <v>435362.0740740741</v>
       </c>
       <c r="E129" s="5">
         <f>AVERAGE(E8:E11,E18:E20,E22,E27:E30,E32:E33,E35:E38,E48:E51,E58:E60,E62,E67:E70,E72:E73,E75:E78,E88:E91,E98:E100,E102,E107:E110,E112:E113,E115:E118)</f>
-        <v>454785.5</v>
+        <v>454388.5740740741</v>
       </c>
       <c r="G129" s="5">
         <f>AVERAGE(G8:G11,G18:G20,G22,G27:G30,G32:G33,G35:G38,G48:G51,G58:G60,G62,G67:G70,G72:G73,G75:G78,G88:G91,G98:G100,G102,G107:G110,G112:G113,G115:G118)</f>
-        <v>451941.55555555556</v>
+        <v>451828.90740740742</v>
       </c>
       <c r="I129" s="5">
         <f>AVERAGE(I8:I11,I18:I20,I22,I27:I30,I32:I33,I35:I38,I48:I51,I58:I60,I62,I67:I70,I72:I73,I75:I78,I88:I91,I98:I100,I102,I107:I110,I112:I113,I115:I118)</f>
-        <v>435966.94444444444</v>
+        <v>4625.2037037037035</v>
       </c>
       <c r="K129" s="5">
         <f>AVERAGE(K8:K11,K18:K20,K22,K27:K30,K32:K33,K35:K38,K48:K51,K58:K60,K62,K67:K70,K72:K73,K75:K78,K88:K91,K98:K100,K102,K107:K110,K112:K113,K115:K118)</f>
-        <v>416119.31481481483</v>
+        <v>425876.4259259259</v>
       </c>
       <c r="M129" s="5">
         <f>AVERAGE(M8:M11,M18:M20,M22,M27:M30,M32:M33,M35:M38,M48:M51,M58:M60,M62,M67:M70,M72:M73,M75:M78,M88:M91,M98:M100,M102,M107:M110,M112:M113,M115:M118)</f>
-        <v>451941.0740740741</v>
+        <v>451825.5740740741</v>
       </c>
       <c r="O129" s="5">
         <f>AVERAGE(O8:O11,O18:O20,O22,O27:O30,O32:O33,O35:O38,O48:O51,O58:O60,O62,O67:O70,O72:O73,O75:O78,O88:O91,O98:O100,O102,O107:O110,O112:O113,O115:O118)</f>
-        <v>318155.90740740742</v>
+        <v>327441.25925925927</v>
       </c>
       <c r="Q129" s="5">
         <f>AVERAGE(Q8:Q11,Q18:Q20,Q22,Q27:Q30,Q32:Q33,Q35:Q38,Q48:Q51,Q58:Q60,Q62,Q67:Q70,Q72:Q73,Q75:Q78,Q88:Q91,Q98:Q100,Q102,Q107:Q110,Q112:Q113,Q115:Q118)</f>
-        <v>440967.72222222225</v>
+        <v>441029.75925925927</v>
       </c>
       <c r="S129" s="5">
         <f>AVERAGE(S8:S11,S18:S20,S22,S27:S30,S32:S33,S35:S38,S48:S51,S58:S60,S62,S67:S70,S72:S73,S75:S78,S88:S91,S98:S100,S102,S107:S110,S112:S113,S115:S118)</f>
-        <v>437138.03703703702</v>
+        <v>437041.5</v>
       </c>
     </row>
     <row r="130" spans="1:19" s="1" customFormat="1">
@@ -11577,39 +11649,39 @@
       </c>
       <c r="C130" s="5">
         <f>MEDIAN(C8:C11,C18:C20,C22,C27:C30,C32:C33,C35:C38,C48:C51,C58:C60,C62,C67:C70,C72:C73,C75:C78,C88:C91,C98:C100,C102,C107:C110,C112:C113,C115:C118)</f>
-        <v>152428.5</v>
+        <v>152202</v>
       </c>
       <c r="E130" s="5">
         <f>MEDIAN(E8:E11,E18:E20,E22,E27:E30,E32:E33,E35:E38,E48:E51,E58:E60,E62,E67:E70,E72:E73,E75:E78,E88:E91,E98:E100,E102,E107:E110,E112:E113,E115:E118)</f>
-        <v>187464.5</v>
+        <v>187450</v>
       </c>
       <c r="G130" s="5">
         <f>MEDIAN(G8:G11,G18:G20,G22,G27:G30,G32:G33,G35:G38,G48:G51,G58:G60,G62,G67:G70,G72:G73,G75:G78,G88:G91,G98:G100,G102,G107:G110,G112:G113,G115:G118)</f>
-        <v>188690.5</v>
+        <v>188713.5</v>
       </c>
       <c r="I130" s="5">
         <f>MEDIAN(I8:I11,I18:I20,I22,I27:I30,I32:I33,I35:I38,I48:I51,I58:I60,I62,I67:I70,I72:I73,I75:I78,I88:I91,I98:I100,I102,I107:I110,I112:I113,I115:I118)</f>
-        <v>152428.5</v>
+        <v>148.5</v>
       </c>
       <c r="K130" s="5">
         <f>MEDIAN(K8:K11,K18:K20,K22,K27:K30,K32:K33,K35:K38,K48:K51,K58:K60,K62,K67:K70,K72:K73,K75:K78,K88:K91,K98:K100,K102,K107:K110,K112:K113,K115:K118)</f>
-        <v>146752</v>
+        <v>146384</v>
       </c>
       <c r="M130" s="5">
         <f>MEDIAN(M8:M11,M18:M20,M22,M27:M30,M32:M33,M35:M38,M48:M51,M58:M60,M62,M67:M70,M72:M73,M75:M78,M88:M91,M98:M100,M102,M107:M110,M112:M113,M115:M118)</f>
-        <v>188690.5</v>
+        <v>188713.5</v>
       </c>
       <c r="O130" s="5">
         <f>MEDIAN(O8:O11,O18:O20,O22,O27:O30,O32:O33,O35:O38,O48:O51,O58:O60,O62,O67:O70,O72:O73,O75:O78,O88:O91,O98:O100,O102,O107:O110,O112:O113,O115:O118)</f>
-        <v>97793.5</v>
+        <v>97607.5</v>
       </c>
       <c r="Q130" s="5">
         <f>MEDIAN(Q8:Q11,Q18:Q20,Q22,Q27:Q30,Q32:Q33,Q35:Q38,Q48:Q51,Q58:Q60,Q62,Q67:Q70,Q72:Q73,Q75:Q78,Q88:Q91,Q98:Q100,Q102,Q107:Q110,Q112:Q113,Q115:Q118)</f>
-        <v>169344.5</v>
+        <v>169370</v>
       </c>
       <c r="S130" s="5">
         <f>MEDIAN(S8:S11,S18:S20,S22,S27:S30,S32:S33,S35:S38,S48:S51,S58:S60,S62,S67:S70,S72:S73,S75:S78,S88:S91,S98:S100,S102,S107:S110,S112:S113,S115:S118)</f>
-        <v>176810</v>
+        <v>176781</v>
       </c>
     </row>
     <row r="131" spans="1:19" s="2" customFormat="1">
@@ -11618,39 +11690,39 @@
       </c>
       <c r="C131" s="7">
         <f>SUM(C8:C11,C18:C20,C22,C27:C30,C32:C33,C35:C38,C48:C51,C58:C60,C62,C67:C70,C72:C73,C75:C78,C88:C91,C98:C100,C102,C107:C110,C112:C113,C115:C118)</f>
-        <v>23542269</v>
+        <v>23509552</v>
       </c>
       <c r="E131" s="7">
         <f>SUM(E8:E11,E18:E20,E22,E27:E30,E32:E33,E35:E38,E48:E51,E58:E60,E62,E67:E70,E72:E73,E75:E78,E88:E91,E98:E100,E102,E107:E110,E112:E113,E115:E118)</f>
-        <v>24558417</v>
+        <v>24536983</v>
       </c>
       <c r="G131" s="7">
         <f>SUM(G8:G11,G18:G20,G22,G27:G30,G32:G33,G35:G38,G48:G51,G58:G60,G62,G67:G70,G72:G73,G75:G78,G88:G91,G98:G100,G102,G107:G110,G112:G113,G115:G118)</f>
-        <v>24404844</v>
+        <v>24398761</v>
       </c>
       <c r="I131" s="7">
         <f>SUM(I8:I11,I18:I20,I22,I27:I30,I32:I33,I35:I38,I48:I51,I58:I60,I62,I67:I70,I72:I73,I75:I78,I88:I91,I98:I100,I102,I107:I110,I112:I113,I115:I118)</f>
-        <v>23542215</v>
+        <v>249761</v>
       </c>
       <c r="K131" s="7">
         <f>SUM(K8:K11,K18:K20,K22,K27:K30,K32:K33,K35:K38,K48:K51,K58:K60,K62,K67:K70,K72:K73,K75:K78,K88:K91,K98:K100,K102,K107:K110,K112:K113,K115:K118)</f>
-        <v>22470443</v>
+        <v>22997327</v>
       </c>
       <c r="M131" s="7">
         <f>SUM(M8:M11,M18:M20,M22,M27:M30,M32:M33,M35:M38,M48:M51,M58:M60,M62,M67:M70,M72:M73,M75:M78,M88:M91,M98:M100,M102,M107:M110,M112:M113,M115:M118)</f>
-        <v>24404818</v>
+        <v>24398581</v>
       </c>
       <c r="O131" s="7">
         <f>SUM(O8:O11,O18:O20,O22,O27:O30,O32:O33,O35:O38,O48:O51,O58:O60,O62,O67:O70,O72:O73,O75:O78,O88:O91,O98:O100,O102,O107:O110,O112:O113,O115:O118)</f>
-        <v>17180419</v>
+        <v>17681828</v>
       </c>
       <c r="Q131" s="7">
         <f>SUM(Q8:Q11,Q18:Q20,Q22,Q27:Q30,Q32:Q33,Q35:Q38,Q48:Q51,Q58:Q60,Q62,Q67:Q70,Q72:Q73,Q75:Q78,Q88:Q91,Q98:Q100,Q102,Q107:Q110,Q112:Q113,Q115:Q118)</f>
-        <v>23812257</v>
+        <v>23815607</v>
       </c>
       <c r="S131" s="7">
         <f>SUM(S8:S11,S18:S20,S22,S27:S30,S32:S33,S35:S38,S48:S51,S58:S60,S62,S67:S70,S72:S73,S75:S78,S88:S91,S98:S100,S102,S107:S110,S112:S113,S115:S118)</f>
-        <v>23605454</v>
+        <v>23600241</v>
       </c>
     </row>
     <row r="132" spans="1:19" s="1" customFormat="1">
@@ -11659,39 +11731,39 @@
       </c>
       <c r="C132" s="5">
         <f>AVERAGE(C43:C82)</f>
-        <v>46274.625</v>
+        <v>45745.5</v>
       </c>
       <c r="E132" s="5">
         <f>AVERAGE(E43:E82)</f>
-        <v>48420.474999999999</v>
+        <v>48391.425000000003</v>
       </c>
       <c r="G132" s="5">
         <f>AVERAGE(G43:G82)</f>
-        <v>49726.3</v>
+        <v>49737.925000000003</v>
       </c>
       <c r="I132" s="5">
         <f>AVERAGE(I43:I82)</f>
-        <v>46274.724999999999</v>
+        <v>253.65</v>
       </c>
       <c r="K132" s="5">
         <f>AVERAGE(K43:K82)</f>
-        <v>63959.45</v>
+        <v>64718.45</v>
       </c>
       <c r="M132" s="5">
         <f>AVERAGE(M43:M82)</f>
-        <v>49728.3</v>
+        <v>49736</v>
       </c>
       <c r="O132" s="5">
         <f>AVERAGE(O43:O82)</f>
-        <v>40460.324999999997</v>
+        <v>40739.375</v>
       </c>
       <c r="Q132" s="5">
         <f>AVERAGE(Q43:Q82)</f>
-        <v>47828.074999999997</v>
+        <v>47808.5</v>
       </c>
       <c r="S132" s="5">
         <f>AVERAGE(S43:S82)</f>
-        <v>48129.5</v>
+        <v>48134.275000000001</v>
       </c>
     </row>
     <row r="133" spans="1:19" s="1" customFormat="1">
@@ -11700,39 +11772,39 @@
       </c>
       <c r="C133" s="5">
         <f>MEDIAN(C43:C82)</f>
-        <v>27176</v>
+        <v>27215.5</v>
       </c>
       <c r="E133" s="5">
         <f>MEDIAN(E43:E82)</f>
-        <v>26034</v>
+        <v>26062.5</v>
       </c>
       <c r="G133" s="5">
         <f>MEDIAN(G43:G82)</f>
-        <v>27393</v>
+        <v>27503</v>
       </c>
       <c r="I133" s="5">
         <f>MEDIAN(I43:I82)</f>
-        <v>27176</v>
+        <v>291</v>
       </c>
       <c r="K133" s="5">
         <f>MEDIAN(K43:K82)</f>
-        <v>43716</v>
+        <v>43748</v>
       </c>
       <c r="M133" s="5">
         <f>MEDIAN(M43:M82)</f>
-        <v>27393</v>
+        <v>27503</v>
       </c>
       <c r="O133" s="5">
         <f>MEDIAN(O43:O82)</f>
-        <v>27345.5</v>
+        <v>27709.5</v>
       </c>
       <c r="Q133" s="5">
         <f>MEDIAN(Q43:Q82)</f>
-        <v>26182</v>
+        <v>26289.5</v>
       </c>
       <c r="S133" s="5">
         <f>MEDIAN(S43:S82)</f>
-        <v>27398.5</v>
+        <v>27465</v>
       </c>
     </row>
     <row r="134" spans="1:19" s="2" customFormat="1">
@@ -11741,39 +11813,39 @@
       </c>
       <c r="C134" s="7">
         <f>SUM(C43:C82)</f>
-        <v>1850985</v>
+        <v>1829820</v>
       </c>
       <c r="E134" s="7">
         <f>SUM(E43:E82)</f>
-        <v>1936819</v>
+        <v>1935657</v>
       </c>
       <c r="G134" s="7">
         <f>SUM(G43:G82)</f>
-        <v>1989052</v>
+        <v>1989517</v>
       </c>
       <c r="I134" s="7">
         <f>SUM(I43:I82)</f>
-        <v>1850989</v>
+        <v>10146</v>
       </c>
       <c r="K134" s="7">
         <f>SUM(K43:K82)</f>
-        <v>2558378</v>
+        <v>2588738</v>
       </c>
       <c r="M134" s="7">
         <f>SUM(M43:M82)</f>
-        <v>1989132</v>
+        <v>1989440</v>
       </c>
       <c r="O134" s="7">
         <f>SUM(O43:O82)</f>
-        <v>1618413</v>
+        <v>1629575</v>
       </c>
       <c r="Q134" s="7">
         <f>SUM(Q43:Q82)</f>
-        <v>1913123</v>
+        <v>1912340</v>
       </c>
       <c r="S134" s="7">
         <f>SUM(S43:S82)</f>
-        <v>1925180</v>
+        <v>1925371</v>
       </c>
     </row>
     <row r="135" spans="1:19" s="1" customFormat="1">
@@ -11782,39 +11854,39 @@
       </c>
       <c r="C135" s="5">
         <f>AVERAGE(C83:C122)</f>
-        <v>161408.32500000001</v>
+        <v>161052.54999999999</v>
       </c>
       <c r="E135" s="5">
         <f>AVERAGE(E83:E122)</f>
-        <v>163233.4</v>
+        <v>163147.72500000001</v>
       </c>
       <c r="G135" s="5">
         <f>AVERAGE(G83:G122)</f>
-        <v>166598.77499999999</v>
+        <v>166550.25</v>
       </c>
       <c r="I135" s="5">
         <f>AVERAGE(I83:I122)</f>
-        <v>161409.375</v>
+        <v>594.20000000000005</v>
       </c>
       <c r="K135" s="5">
         <f>AVERAGE(K83:K122)</f>
-        <v>192295.75</v>
+        <v>194363.02499999999</v>
       </c>
       <c r="M135" s="5">
         <f>AVERAGE(M83:M122)</f>
-        <v>166598.77499999999</v>
+        <v>166550.25</v>
       </c>
       <c r="O135" s="5">
         <f>AVERAGE(O83:O122)</f>
-        <v>139171.15</v>
+        <v>140945.25</v>
       </c>
       <c r="Q135" s="5">
         <f>AVERAGE(Q83:Q122)</f>
-        <v>160778.5</v>
+        <v>160779.52499999999</v>
       </c>
       <c r="S135" s="5">
         <f>AVERAGE(S83:S122)</f>
-        <v>161734.65</v>
+        <v>161681.625</v>
       </c>
     </row>
     <row r="136" spans="1:19" s="1" customFormat="1">
@@ -11823,39 +11895,39 @@
       </c>
       <c r="C136" s="5">
         <f>MEDIAN(C83:C122)</f>
-        <v>79226.5</v>
+        <v>79397.5</v>
       </c>
       <c r="E136" s="5">
         <f>MEDIAN(E83:E122)</f>
-        <v>78585</v>
+        <v>78589.5</v>
       </c>
       <c r="G136" s="5">
         <f>MEDIAN(G83:G122)</f>
-        <v>81216.5</v>
+        <v>81252.5</v>
       </c>
       <c r="I136" s="5">
         <f>MEDIAN(I83:I122)</f>
-        <v>79226.5</v>
+        <v>641</v>
       </c>
       <c r="K136" s="5">
         <f>MEDIAN(K83:K122)</f>
-        <v>109457.5</v>
+        <v>109488</v>
       </c>
       <c r="M136" s="5">
         <f>MEDIAN(M83:M122)</f>
-        <v>81216.5</v>
+        <v>81252.5</v>
       </c>
       <c r="O136" s="5">
         <f>MEDIAN(O83:O122)</f>
-        <v>81902.5</v>
+        <v>83234.5</v>
       </c>
       <c r="Q136" s="5">
         <f>MEDIAN(Q83:Q122)</f>
-        <v>78728</v>
+        <v>77887</v>
       </c>
       <c r="S136" s="5">
         <f>MEDIAN(S83:S122)</f>
-        <v>81290</v>
+        <v>81315.5</v>
       </c>
     </row>
     <row r="137" spans="1:19" s="2" customFormat="1">
@@ -11864,39 +11936,39 @@
       </c>
       <c r="C137" s="7">
         <f>SUM(C83:C122)</f>
-        <v>6456333</v>
+        <v>6442102</v>
       </c>
       <c r="E137" s="7">
         <f>SUM(E83:E122)</f>
-        <v>6529336</v>
+        <v>6525909</v>
       </c>
       <c r="G137" s="7">
         <f>SUM(G83:G122)</f>
-        <v>6663951</v>
+        <v>6662010</v>
       </c>
       <c r="I137" s="7">
         <f>SUM(I83:I122)</f>
-        <v>6456375</v>
+        <v>23768</v>
       </c>
       <c r="K137" s="7">
         <f>SUM(K83:K122)</f>
-        <v>7691830</v>
+        <v>7774521</v>
       </c>
       <c r="M137" s="7">
         <f>SUM(M83:M122)</f>
-        <v>6663951</v>
+        <v>6662010</v>
       </c>
       <c r="O137" s="7">
         <f>SUM(O83:O122)</f>
-        <v>5566846</v>
+        <v>5637810</v>
       </c>
       <c r="Q137" s="7">
         <f>SUM(Q83:Q122)</f>
-        <v>6431140</v>
+        <v>6431181</v>
       </c>
       <c r="S137" s="7">
         <f>SUM(S83:S122)</f>
-        <v>6469386</v>
+        <v>6467265</v>
       </c>
     </row>
     <row r="138" spans="1:19" s="1" customFormat="1">
@@ -11905,39 +11977,39 @@
       </c>
       <c r="C138" s="5">
         <f>AVERAGE(C3:C42)</f>
-        <v>545674.375</v>
+        <v>546435.35</v>
       </c>
       <c r="E138" s="5">
         <f>AVERAGE(E3:E42)</f>
-        <v>554422</v>
+        <v>554071.65</v>
       </c>
       <c r="G138" s="5">
         <f>AVERAGE(G3:G42)</f>
-        <v>549619.17500000005</v>
+        <v>549650.4</v>
       </c>
       <c r="I138" s="5">
         <f>AVERAGE(I3:I42)</f>
-        <v>545671.875</v>
+        <v>7959.2</v>
       </c>
       <c r="K138" s="5">
         <f>AVERAGE(K3:K42)</f>
-        <v>527657.25</v>
+        <v>538614.07499999995</v>
       </c>
       <c r="M138" s="5">
         <f>AVERAGE(M3:M42)</f>
-        <v>549616.52500000002</v>
+        <v>549647.82499999995</v>
       </c>
       <c r="O138" s="5">
         <f>AVERAGE(O3:O42)</f>
-        <v>423050.82500000001</v>
+        <v>434365.2</v>
       </c>
       <c r="Q138" s="5">
         <f>AVERAGE(Q3:Q42)</f>
-        <v>538789.69999999995</v>
+        <v>539037.80000000005</v>
       </c>
       <c r="S138" s="5">
         <f>AVERAGE(S3:S42)</f>
-        <v>536069.82499999995</v>
+        <v>536122.52500000002</v>
       </c>
     </row>
     <row r="139" spans="1:19" s="1" customFormat="1">
@@ -11946,19 +12018,19 @@
       </c>
       <c r="C139" s="5">
         <f>MEDIAN(C3:C42)</f>
-        <v>231726</v>
+        <v>231687.5</v>
       </c>
       <c r="E139" s="5">
         <f>MEDIAN(E3:E42)</f>
-        <v>242579.5</v>
+        <v>242500.5</v>
       </c>
       <c r="G139" s="5">
         <f>MEDIAN(G3:G42)</f>
-        <v>251214.5</v>
+        <v>251215.5</v>
       </c>
       <c r="I139" s="5">
         <f>MEDIAN(I3:I42)</f>
-        <v>231726</v>
+        <v>2057</v>
       </c>
       <c r="K139" s="5">
         <f>MEDIAN(K3:K42)</f>
@@ -11966,19 +12038,19 @@
       </c>
       <c r="M139" s="5">
         <f>MEDIAN(M3:M42)</f>
-        <v>251214.5</v>
+        <v>251215.5</v>
       </c>
       <c r="O139" s="5">
         <f>MEDIAN(O3:O42)</f>
-        <v>238963</v>
+        <v>240053</v>
       </c>
       <c r="Q139" s="5">
         <f>MEDIAN(Q3:Q42)</f>
-        <v>237327</v>
+        <v>238417</v>
       </c>
       <c r="S139" s="5">
         <f>MEDIAN(S3:S42)</f>
-        <v>251214.5</v>
+        <v>251215.5</v>
       </c>
     </row>
     <row r="140" spans="1:19" s="2" customFormat="1">
@@ -11987,39 +12059,39 @@
       </c>
       <c r="C140" s="7">
         <f>SUM(C3:C42)</f>
-        <v>21826975</v>
+        <v>21857414</v>
       </c>
       <c r="E140" s="7">
         <f>SUM(E3:E42)</f>
-        <v>22176880</v>
+        <v>22162866</v>
       </c>
       <c r="G140" s="7">
         <f>SUM(G3:G42)</f>
-        <v>21984767</v>
+        <v>21986016</v>
       </c>
       <c r="I140" s="7">
         <f>SUM(I3:I42)</f>
-        <v>21826875</v>
+        <v>318368</v>
       </c>
       <c r="K140" s="7">
         <f>SUM(K3:K42)</f>
-        <v>21106290</v>
+        <v>21544563</v>
       </c>
       <c r="M140" s="7">
         <f>SUM(M3:M42)</f>
-        <v>21984661</v>
+        <v>21985913</v>
       </c>
       <c r="O140" s="7">
         <f>SUM(O3:O42)</f>
-        <v>16922033</v>
+        <v>17374608</v>
       </c>
       <c r="Q140" s="7">
         <f>SUM(Q3:Q42)</f>
-        <v>21551588</v>
+        <v>21561512</v>
       </c>
       <c r="S140" s="7">
         <f>SUM(S3:S42)</f>
-        <v>21442793</v>
+        <v>21444901</v>
       </c>
     </row>
   </sheetData>
